--- a/Kansas/WaterAllocation/KS_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Kansas/WaterAllocation/KS_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Kansas\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA1CF70-1BAE-4656-944F-E3E46C518E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80544103-76F0-4BD6-A7B7-2ECF87A0CD88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="8" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="829">
   <si>
     <t>Name</t>
   </si>
@@ -2563,6 +2563,15 @@
   </si>
   <si>
     <t>Proposed Certificate Extended Time to Perfect</t>
+  </si>
+  <si>
+    <t>OwnerClassificationCV</t>
+  </si>
+  <si>
+    <t>Army (USA)</t>
+  </si>
+  <si>
+    <t>WSWC defined owner tag.</t>
   </si>
 </sst>
 </file>
@@ -3353,7 +3362,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3640,6 +3649,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -6313,10 +6325,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:G46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7297,7 +7309,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
@@ -7329,7 +7341,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>98</v>
       </c>
@@ -7361,7 +7373,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>100</v>
       </c>
@@ -7393,7 +7405,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="51" t="s">
         <v>154</v>
       </c>
@@ -7421,7 +7433,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>82</v>
       </c>
@@ -7453,7 +7465,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="92" t="s">
         <v>808</v>
       </c>
@@ -7479,7 +7491,7 @@
       <c r="I38" s="97"/>
       <c r="J38" s="98"/>
     </row>
-    <row r="39" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>90</v>
       </c>
@@ -7511,7 +7523,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>91</v>
       </c>
@@ -7541,7 +7553,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>99</v>
       </c>
@@ -7573,7 +7585,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
@@ -7605,50 +7617,50 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>89</v>
+        <v>826</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>38</v>
-      </c>
+      <c r="D43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="101"/>
       <c r="H43" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="66" t="s">
-        <v>38</v>
+        <v>827</v>
       </c>
       <c r="J43" s="62" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+        <v>828</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>569</v>
@@ -7662,80 +7674,112 @@
       <c r="H44" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J44" s="63" t="s">
+      <c r="J45" s="63" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B46" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C46" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D46" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E46" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="64" t="s">
+      <c r="F46" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="J45" s="62" t="s">
+      <c r="J46" s="62" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="25" t="s">
+      <c r="D47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="25" t="s">
         <v>569</v>
       </c>
-      <c r="F46" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="18" t="s">
+      <c r="F47" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="62" t="s">
+      <c r="J47" s="62" t="s">
         <v>210</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J45">
-    <sortCondition ref="A14:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J46">
+    <sortCondition ref="A14:A46"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7790,7 +7834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4937A746-C61C-4B77-856B-5C115168800E}">
   <dimension ref="A1:D507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>

--- a/Kansas/WaterAllocation/KS_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Kansas/WaterAllocation/KS_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Kansas\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80544103-76F0-4BD6-A7B7-2ECF87A0CD88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5F9F56-8423-4635-A2F4-C759D930B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="832">
   <si>
     <t>Name</t>
   </si>
@@ -1800,18 +1800,9 @@
     <t>Surface Ground Water</t>
   </si>
   <si>
-    <t>KDADWR_Water Rights</t>
-  </si>
-  <si>
-    <t>KDADWR</t>
-  </si>
-  <si>
     <t>Water Information Management and Analysis System (WIMAS)</t>
   </si>
   <si>
-    <t>KDADWR_Allocation All</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
@@ -2572,6 +2563,24 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>KSwr_M1</t>
+  </si>
+  <si>
+    <t>KSwr_V1</t>
+  </si>
+  <si>
+    <t>KSwr_O1</t>
+  </si>
+  <si>
+    <t>*get from watersources.csv</t>
+  </si>
+  <si>
+    <t>*get from sites.csv</t>
+  </si>
+  <si>
+    <t>match ben use</t>
   </si>
 </sst>
 </file>
@@ -4012,7 +4021,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4034,7 +4043,7 @@
         <v>238</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
@@ -4083,12 +4092,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="77" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="77" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4096,15 +4105,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="77" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -4224,7 +4233,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>571</v>
+        <v>826</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -4364,7 +4373,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -4390,7 +4399,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -4473,7 +4482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F86677-A939-4892-ADA0-492C09897DFD}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4577,7 +4586,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="86" t="s">
-        <v>574</v>
+        <v>827</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -4705,7 +4714,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -4737,7 +4746,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -4833,7 +4842,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -4865,7 +4874,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>38</v>
@@ -4896,7 +4905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5000,7 +5009,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>572</v>
+        <v>828</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -5032,7 +5041,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="87" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -5064,7 +5073,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -5096,7 +5105,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -5128,7 +5137,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -5160,7 +5169,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -5192,7 +5201,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -5224,7 +5233,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -5256,7 +5265,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -5419,7 +5428,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F4" s="81" t="s">
         <v>38</v>
@@ -5539,13 +5548,13 @@
         <v>38</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G8" s="83" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
@@ -5572,10 +5581,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="17">
@@ -5599,13 +5608,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F10" s="75" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
@@ -5736,7 +5745,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -5796,7 +5805,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>38</v>
@@ -5827,10 +5836,10 @@
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="22" t="s">
@@ -6005,10 +6014,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="18" t="s">
@@ -6035,10 +6044,10 @@
         <v>38</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="18">
@@ -6110,7 +6119,7 @@
     </row>
     <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -6122,7 +6131,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>38</v>
@@ -6132,7 +6141,7 @@
       </c>
       <c r="H17" s="90"/>
       <c r="I17" s="91" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="J17" s="90"/>
     </row>
@@ -6148,7 +6157,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>38</v>
@@ -6181,10 +6190,10 @@
         <v>38</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="18">
@@ -6268,7 +6277,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>38</v>
@@ -6328,7 +6337,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6584,7 +6593,9 @@
       <c r="D9" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="99" t="s">
+        <v>826</v>
+      </c>
       <c r="F9" s="72"/>
       <c r="G9" s="73"/>
       <c r="H9" s="39" t="s">
@@ -6610,7 +6621,9 @@
       <c r="D10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="59" t="s">
+        <v>828</v>
+      </c>
       <c r="F10" s="57"/>
       <c r="G10" s="26"/>
       <c r="H10" s="39" t="s">
@@ -6636,7 +6649,9 @@
       <c r="D11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="59" t="s">
+        <v>830</v>
+      </c>
       <c r="F11" s="57"/>
       <c r="G11" s="26"/>
       <c r="H11" s="39" t="s">
@@ -6662,7 +6677,9 @@
       <c r="D12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="100"/>
+      <c r="E12" s="100" t="s">
+        <v>827</v>
+      </c>
       <c r="F12" s="57"/>
       <c r="G12" s="26"/>
       <c r="H12" s="39" t="s">
@@ -6688,7 +6705,9 @@
       <c r="D13" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="43" t="s">
+        <v>829</v>
+      </c>
       <c r="F13" s="45"/>
       <c r="G13" s="44"/>
       <c r="H13" s="39" t="s">
@@ -6959,7 +6978,7 @@
     </row>
     <row r="22" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="92" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B22" s="52" t="s">
         <v>69</v>
@@ -7006,10 +7025,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="H23" s="39" t="s">
         <v>38</v>
@@ -7038,10 +7057,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>38</v>
@@ -7067,7 +7086,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>38</v>
@@ -7102,10 +7121,10 @@
         <v>38</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="H26" s="39" t="s">
         <v>38</v>
@@ -7230,10 +7249,10 @@
         <v>38</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H30" s="39" t="s">
         <v>38</v>
@@ -7242,12 +7261,12 @@
         <v>132</v>
       </c>
       <c r="J30" s="62" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="92" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B31" s="52" t="s">
         <v>69</v>
@@ -7262,10 +7281,10 @@
         <v>38</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G31" s="83" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H31" s="93" t="s">
         <v>38</v>
@@ -7291,13 +7310,13 @@
         <v>38</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>38</v>
@@ -7419,7 +7438,7 @@
         <v>38</v>
       </c>
       <c r="E36" s="60">
-        <v>43836</v>
+        <v>44691</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="74"/>
@@ -7467,10 +7486,10 @@
     </row>
     <row r="38" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="92" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>18</v>
@@ -7619,7 +7638,7 @@
     </row>
     <row r="43" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -7637,10 +7656,10 @@
         <v>38</v>
       </c>
       <c r="I43" s="66" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="J43" s="62" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -7727,7 +7746,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>131</v>
+        <v>831</v>
       </c>
       <c r="F46" s="35" t="s">
         <v>38</v>
@@ -8404,7 +8423,7 @@
         <v>518</v>
       </c>
       <c r="B61" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="4"/>
@@ -8440,7 +8459,7 @@
         <v>521</v>
       </c>
       <c r="B64" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="4"/>
@@ -8476,7 +8495,7 @@
         <v>524</v>
       </c>
       <c r="B67" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="4"/>
@@ -8512,7 +8531,7 @@
         <v>527</v>
       </c>
       <c r="B70" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="4"/>
@@ -8560,7 +8579,7 @@
         <v>531</v>
       </c>
       <c r="B74" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="4"/>
@@ -10546,15 +10565,15 @@
         <v>537</v>
       </c>
       <c r="B300" s="85" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B301" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" ref="C301:C364" si="6">""""&amp;A301&amp;""""&amp;" : "&amp;""""&amp;B301&amp;""""&amp;","</f>
@@ -10564,10 +10583,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B302" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="6"/>
@@ -10577,10 +10596,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B303" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="6"/>
@@ -10590,10 +10609,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B304" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="6"/>
@@ -10603,10 +10622,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B305" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="6"/>
@@ -10616,10 +10635,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B306" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="6"/>
@@ -10629,10 +10648,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B307" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="6"/>
@@ -10642,10 +10661,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B308" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="6"/>
@@ -10655,10 +10674,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B309" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="6"/>
@@ -10668,10 +10687,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B310" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="6"/>
@@ -10681,10 +10700,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B311" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="6"/>
@@ -10694,10 +10713,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B312" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="6"/>
@@ -10707,10 +10726,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B313" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="6"/>
@@ -10720,10 +10739,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B314" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="6"/>
@@ -10733,10 +10752,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B315" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="6"/>
@@ -10746,10 +10765,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B316" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="6"/>
@@ -10759,10 +10778,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B317" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="6"/>
@@ -10772,10 +10791,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B318" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="6"/>
@@ -10785,10 +10804,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B319" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="6"/>
@@ -10798,10 +10817,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B320" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="6"/>
@@ -10811,10 +10830,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B321" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C321" t="str">
         <f t="shared" si="6"/>
@@ -10824,10 +10843,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B322" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C322" t="str">
         <f t="shared" si="6"/>
@@ -10837,10 +10856,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B323" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C323" t="str">
         <f t="shared" si="6"/>
@@ -10850,10 +10869,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B324" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="6"/>
@@ -10863,10 +10882,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B325" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="6"/>
@@ -10876,10 +10895,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B326" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="6"/>
@@ -10889,10 +10908,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B327" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="6"/>
@@ -10902,10 +10921,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B328" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" si="6"/>
@@ -10918,7 +10937,7 @@
         <v>510</v>
       </c>
       <c r="B329" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="6"/>
@@ -10928,10 +10947,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B330" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="6"/>
@@ -10941,10 +10960,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B331" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="6"/>
@@ -10954,10 +10973,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B332" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C332" t="str">
         <f t="shared" si="6"/>
@@ -10967,10 +10986,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B333" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C333" t="str">
         <f t="shared" si="6"/>
@@ -10980,10 +10999,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B334" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="6"/>
@@ -10996,7 +11015,7 @@
         <v>513</v>
       </c>
       <c r="B335" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="6"/>
@@ -11006,10 +11025,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B336" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="6"/>
@@ -11019,10 +11038,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B337" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="6"/>
@@ -11032,10 +11051,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B338" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="6"/>
@@ -11045,10 +11064,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B339" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="6"/>
@@ -11058,10 +11077,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B340" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C340" t="str">
         <f t="shared" si="6"/>
@@ -11071,10 +11090,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B341" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C341" t="str">
         <f t="shared" si="6"/>
@@ -11084,10 +11103,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B342" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="6"/>
@@ -11097,10 +11116,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B343" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="6"/>
@@ -11110,10 +11129,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B344" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="6"/>
@@ -11123,10 +11142,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B345" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="6"/>
@@ -11136,10 +11155,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B346" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="6"/>
@@ -11152,7 +11171,7 @@
         <v>520</v>
       </c>
       <c r="B347" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="6"/>
@@ -11162,10 +11181,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B348" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="6"/>
@@ -11175,10 +11194,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B349" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="6"/>
@@ -11188,10 +11207,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B350" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="6"/>
@@ -11201,10 +11220,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B351" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="6"/>
@@ -11214,10 +11233,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B352" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="6"/>
@@ -11230,7 +11249,7 @@
         <v>523</v>
       </c>
       <c r="B353" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C353" t="str">
         <f t="shared" si="6"/>
@@ -11240,10 +11259,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B354" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="6"/>
@@ -11256,7 +11275,7 @@
         <v>524</v>
       </c>
       <c r="B355" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C355" t="str">
         <f t="shared" si="6"/>
@@ -11266,10 +11285,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B356" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C356" t="str">
         <f t="shared" si="6"/>
@@ -11279,10 +11298,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B357" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C357" t="str">
         <f t="shared" si="6"/>
@@ -11292,10 +11311,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B358" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C358" t="str">
         <f t="shared" si="6"/>
@@ -11305,10 +11324,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B359" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C359" t="str">
         <f t="shared" si="6"/>
@@ -11318,10 +11337,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B360" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C360" t="str">
         <f t="shared" si="6"/>
@@ -11331,10 +11350,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B361" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C361" t="str">
         <f t="shared" si="6"/>
@@ -11344,10 +11363,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B362" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C362" t="str">
         <f t="shared" si="6"/>
@@ -11357,10 +11376,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B363" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C363" t="str">
         <f t="shared" si="6"/>
@@ -11373,7 +11392,7 @@
         <v>531</v>
       </c>
       <c r="B364" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C364" t="str">
         <f t="shared" si="6"/>
@@ -11383,10 +11402,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B365" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C365" t="str">
         <f t="shared" ref="C365:C405" si="7">""""&amp;A365&amp;""""&amp;" : "&amp;""""&amp;B365&amp;""""&amp;","</f>
@@ -11396,10 +11415,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B366" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C366" t="str">
         <f t="shared" si="7"/>
@@ -11409,10 +11428,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B367" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C367" t="str">
         <f t="shared" si="7"/>
@@ -11422,10 +11441,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B368" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C368" t="str">
         <f t="shared" si="7"/>
@@ -11438,7 +11457,7 @@
         <v>534</v>
       </c>
       <c r="B369" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C369" t="str">
         <f t="shared" si="7"/>
@@ -11448,10 +11467,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B370" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C370" t="str">
         <f t="shared" si="7"/>
@@ -11461,10 +11480,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B371" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C371" t="str">
         <f t="shared" si="7"/>
@@ -11474,10 +11493,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B372" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C372" t="str">
         <f t="shared" si="7"/>
@@ -11487,10 +11506,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B373" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C373" t="str">
         <f t="shared" si="7"/>
@@ -11500,10 +11519,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B374" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C374" t="str">
         <f t="shared" si="7"/>
@@ -11513,10 +11532,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B375" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C375" t="str">
         <f t="shared" si="7"/>
@@ -11526,10 +11545,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B376" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C376" t="str">
         <f t="shared" si="7"/>
@@ -11539,10 +11558,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B377" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C377" t="str">
         <f t="shared" si="7"/>
@@ -11552,10 +11571,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B378" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C378" t="str">
         <f t="shared" si="7"/>
@@ -11565,10 +11584,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B379" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C379" t="str">
         <f t="shared" si="7"/>
@@ -11578,10 +11597,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B380" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C380" t="str">
         <f t="shared" si="7"/>
@@ -11591,10 +11610,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B381" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C381" t="str">
         <f t="shared" si="7"/>
@@ -11604,10 +11623,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B382" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C382" t="str">
         <f t="shared" si="7"/>
@@ -11617,10 +11636,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B383" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C383" t="str">
         <f t="shared" si="7"/>
@@ -11630,10 +11649,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B384" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C384" t="str">
         <f t="shared" si="7"/>
@@ -11643,10 +11662,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B385" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C385" t="str">
         <f t="shared" si="7"/>
@@ -11656,10 +11675,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B386" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C386" t="str">
         <f t="shared" si="7"/>
@@ -11669,10 +11688,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B387" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C387" t="str">
         <f t="shared" si="7"/>
@@ -11682,10 +11701,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B388" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C388" t="str">
         <f t="shared" si="7"/>
@@ -11695,10 +11714,10 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B389" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C389" t="str">
         <f t="shared" si="7"/>
@@ -11708,10 +11727,10 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B390" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C390" t="str">
         <f t="shared" si="7"/>
@@ -11721,10 +11740,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B391" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C391" t="str">
         <f t="shared" si="7"/>
@@ -11734,10 +11753,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B392" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C392" t="str">
         <f t="shared" si="7"/>
@@ -11747,7 +11766,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B393" t="s">
         <v>277</v>
@@ -11760,10 +11779,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B394" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C394" t="str">
         <f t="shared" si="7"/>
@@ -11773,10 +11792,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B395" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C395" t="str">
         <f t="shared" si="7"/>
@@ -11786,10 +11805,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B396" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C396" t="str">
         <f t="shared" si="7"/>
@@ -11799,10 +11818,10 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B397" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C397" t="str">
         <f t="shared" si="7"/>
@@ -11812,10 +11831,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B398" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C398" t="str">
         <f t="shared" si="7"/>
@@ -11825,10 +11844,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B399" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C399" t="str">
         <f t="shared" si="7"/>
@@ -11838,10 +11857,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B400" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C400" t="str">
         <f t="shared" si="7"/>
@@ -11851,10 +11870,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B401" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C401" t="str">
         <f t="shared" si="7"/>
@@ -11864,10 +11883,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B402" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C402" t="str">
         <f t="shared" si="7"/>
@@ -11877,10 +11896,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B403" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C403" t="str">
         <f t="shared" si="7"/>
@@ -11890,10 +11909,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B404" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C404" t="str">
         <f t="shared" si="7"/>
@@ -11903,10 +11922,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B405" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C405" t="str">
         <f t="shared" si="7"/>

--- a/Kansas/WaterAllocation/KS_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Kansas/WaterAllocation/KS_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Kansas\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5F9F56-8423-4635-A2F4-C759D930B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F0E05-DA0B-4657-98C4-8D5D314B0C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="834">
   <si>
     <t>Name</t>
   </si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>Water Administration for the State of Colorado</t>
-  </si>
-  <si>
-    <t>PrimaryUseCategory</t>
   </si>
   <si>
     <t>BeneficialUseCategory</t>
@@ -2581,6 +2578,15 @@
   </si>
   <si>
     <t>match ben use</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>KSwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -3371,7 +3377,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3661,6 +3667,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4032,18 +4041,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
@@ -4054,10 +4063,10 @@
     </row>
     <row r="5" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
@@ -4072,32 +4081,32 @@
     </row>
     <row r="9" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="B10" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="71"/>
       <c r="B11" s="77" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="77" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="77" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4105,15 +4114,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
+        <v>572</v>
+      </c>
+      <c r="B15" s="77" t="s">
         <v>573</v>
-      </c>
-      <c r="B15" s="77" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="77" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -4172,10 +4181,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4216,7 +4225,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4233,7 +4242,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -4244,7 +4253,7 @@
         <v>138</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4261,7 +4270,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -4272,7 +4281,7 @@
         <v>107</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4289,7 +4298,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -4300,7 +4309,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4317,7 +4326,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -4328,7 +4337,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4345,7 +4354,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -4353,10 +4362,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4373,7 +4382,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -4382,7 +4391,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4399,7 +4408,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -4410,7 +4419,7 @@
         <v>142</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4427,7 +4436,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -4438,7 +4447,7 @@
         <v>106</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4466,7 +4475,7 @@
         <v>108</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4525,10 +4534,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4569,7 +4578,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4586,7 +4595,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="86" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -4601,7 +4610,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4633,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4665,7 +4674,7 @@
         <v>110</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4697,7 +4706,7 @@
         <v>109</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4714,7 +4723,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -4729,7 +4738,7 @@
         <v>112</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4746,7 +4755,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -4761,7 +4770,7 @@
         <v>113</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4793,7 +4802,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4825,7 +4834,7 @@
         <v>111</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4842,7 +4851,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -4857,7 +4866,7 @@
         <v>143</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4874,7 +4883,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>38</v>
@@ -4889,7 +4898,7 @@
         <v>114</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4948,10 +4957,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4992,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -5009,7 +5018,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -5024,7 +5033,7 @@
         <v>125</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5041,7 +5050,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="87" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -5056,7 +5065,7 @@
         <v>129</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5073,7 +5082,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>38</v>
@@ -5088,7 +5097,7 @@
         <v>128</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5105,7 +5114,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>38</v>
@@ -5120,7 +5129,7 @@
         <v>126</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -5137,7 +5146,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>38</v>
@@ -5152,7 +5161,7 @@
         <v>146</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5169,7 +5178,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>38</v>
@@ -5184,7 +5193,7 @@
         <v>127</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -5201,7 +5210,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>38</v>
@@ -5216,7 +5225,7 @@
         <v>147</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -5233,7 +5242,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>38</v>
@@ -5248,7 +5257,7 @@
         <v>126</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5265,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>38</v>
@@ -5280,7 +5289,7 @@
         <v>130</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -5369,10 +5378,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -5411,7 +5420,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -5428,7 +5437,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F4" s="81" t="s">
         <v>38</v>
@@ -5441,7 +5450,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -5458,7 +5467,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F5" s="75" t="s">
         <v>38</v>
@@ -5471,7 +5480,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -5488,7 +5497,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F6" s="75" t="s">
         <v>38</v>
@@ -5501,7 +5510,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -5531,7 +5540,7 @@
         <v>117</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5548,20 +5557,20 @@
         <v>38</v>
       </c>
       <c r="E8" s="75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G8" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5581,17 +5590,17 @@
         <v>38</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -5608,20 +5617,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="79" t="s">
+        <v>584</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="G10" s="83" t="s">
         <v>585</v>
-      </c>
-      <c r="F10" s="75" t="s">
-        <v>584</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>586</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
         <v>107</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5688,10 +5697,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -5730,7 +5739,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5745,7 +5754,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -5758,7 +5767,7 @@
         <v>118</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5775,7 +5784,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>38</v>
@@ -5788,7 +5797,7 @@
         <v>116</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5805,7 +5814,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>38</v>
@@ -5818,7 +5827,7 @@
         <v>123</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5836,17 +5845,17 @@
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="22" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5876,7 +5885,7 @@
         <v>124</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -5893,7 +5902,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>38</v>
@@ -5904,7 +5913,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="18"/>
       <c r="J9" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -5921,7 +5930,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>38</v>
@@ -5934,7 +5943,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5951,7 +5960,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>38</v>
@@ -5964,7 +5973,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5981,7 +5990,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>38</v>
@@ -5994,7 +6003,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6014,17 +6023,17 @@
         <v>38</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="18" t="s">
         <v>121</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6044,17 +6053,17 @@
         <v>38</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6071,7 +6080,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>38</v>
@@ -6084,7 +6093,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6101,7 +6110,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>38</v>
@@ -6114,12 +6123,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -6131,7 +6140,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>38</v>
@@ -6141,7 +6150,7 @@
       </c>
       <c r="H17" s="90"/>
       <c r="I17" s="91" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J17" s="90"/>
     </row>
@@ -6157,7 +6166,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>38</v>
@@ -6170,7 +6179,7 @@
         <v>119</v>
       </c>
       <c r="J18" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -6190,17 +6199,17 @@
         <v>38</v>
       </c>
       <c r="F19" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="G19" s="26" t="s">
         <v>798</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>799</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
       <c r="J19" s="62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -6217,7 +6226,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>38</v>
@@ -6230,7 +6239,7 @@
         <v>122</v>
       </c>
       <c r="J20" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6260,7 +6269,7 @@
         <v>120</v>
       </c>
       <c r="J21" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6277,7 +6286,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>38</v>
@@ -6290,7 +6299,7 @@
         <v>140</v>
       </c>
       <c r="J22" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -6307,7 +6316,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>38</v>
@@ -6320,7 +6329,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6334,10 +6343,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6379,10 +6388,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -6417,7 +6426,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -6449,7 +6458,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -6481,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -6513,7 +6522,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -6545,10 +6554,10 @@
         <v>63</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>39</v>
       </c>
@@ -6577,68 +6586,62 @@
         <v>371091</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51" t="s">
+        <v>831</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>832</v>
+      </c>
+      <c r="F9" s="79"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B10" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="99" t="s">
-        <v>826</v>
-      </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>828</v>
-      </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="26"/>
+      <c r="C10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>825</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="65" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>67</v>
@@ -6650,7 +6653,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="26"/>
@@ -6661,12 +6664,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>67</v>
@@ -6677,8 +6680,8 @@
       <c r="D12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="100" t="s">
-        <v>827</v>
+      <c r="E12" s="59" t="s">
+        <v>829</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="26"/>
@@ -6689,104 +6692,100 @@
         <v>38</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="100" t="s">
+        <v>826</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B14" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>829</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="62" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="52" t="s">
+      <c r="C14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>828</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D15" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="64">
+      <c r="E15" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="64">
         <v>5363</v>
       </c>
-      <c r="J14" s="62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>159</v>
+      <c r="J15" s="62" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>68</v>
@@ -6798,7 +6797,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>38</v>
@@ -6813,56 +6812,56 @@
         <v>132</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="38" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="38" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B18" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C18" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>38</v>
@@ -6873,19 +6872,19 @@
       <c r="H18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="63" t="s">
-        <v>159</v>
+      <c r="I18" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="62" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -6894,7 +6893,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>38</v>
@@ -6906,18 +6905,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" s="62" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>
@@ -6926,7 +6925,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>38</v>
@@ -6937,252 +6936,252 @@
       <c r="H20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="18">
+      <c r="E22" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="18">
         <v>5200</v>
       </c>
-      <c r="J21" s="62" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92" t="s">
-        <v>802</v>
-      </c>
-      <c r="B22" s="52" t="s">
+      <c r="J22" s="62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="92" t="s">
+        <v>801</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C23" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="94">
+      <c r="D23" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="94">
         <v>1</v>
       </c>
-      <c r="J22" s="95" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="J23" s="95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>584</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" s="62" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="61" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>38</v>
+      <c r="E25" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>807</v>
       </c>
       <c r="H25" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J25" s="62" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>798</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>795</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="62" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="38" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>18</v>
+      <c r="C27" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>569</v>
+        <v>38</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>38</v>
+        <v>797</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>794</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="66" t="s">
-        <v>38</v>
+      <c r="I27" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="J27" s="62" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="38" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>38</v>
@@ -7193,16 +7192,16 @@
       <c r="H28" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="67">
-        <v>44196</v>
+      <c r="I28" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="62" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>105</v>
@@ -7214,7 +7213,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>38</v>
@@ -7226,155 +7225,155 @@
         <v>38</v>
       </c>
       <c r="I29" s="67">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="67">
+        <v>43831</v>
+      </c>
+      <c r="J30" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="G30" s="26" t="s">
+      <c r="E31" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" s="62" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="92" t="s">
+        <v>803</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="G32" s="83" t="s">
         <v>810</v>
       </c>
-      <c r="H30" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="62" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="92" t="s">
-        <v>804</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>584</v>
-      </c>
-      <c r="G31" s="83" t="s">
-        <v>811</v>
-      </c>
-      <c r="H31" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="94">
+      <c r="H32" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="94">
         <v>0</v>
       </c>
-      <c r="J31" s="95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>813</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>584</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>812</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="96" t="s">
-        <v>204</v>
+      <c r="J32" s="95" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>812</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" s="63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>38</v>
@@ -7388,13 +7387,13 @@
       <c r="I34" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J34" s="62" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J34" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>15</v>
@@ -7406,7 +7405,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F35" s="35" t="s">
         <v>38</v>
@@ -7421,130 +7420,130 @@
         <v>132</v>
       </c>
       <c r="J35" s="62" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="60">
+      <c r="C37" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="60">
         <v>44691</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="68">
+      <c r="F37" s="35"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="68">
         <v>43874</v>
       </c>
-      <c r="J36" s="62" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="J37" s="62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="69">
+      <c r="D38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="69">
         <v>33187</v>
       </c>
-      <c r="J37" s="63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92" t="s">
+      <c r="J38" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B39" s="52" t="s">
         <v>805</v>
       </c>
-      <c r="B38" s="52" t="s">
-        <v>806</v>
-      </c>
-      <c r="C38" s="53" t="s">
+      <c r="C39" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="35">
+      <c r="D39" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="35">
         <v>0</v>
       </c>
-      <c r="F38" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="93"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="98"/>
-    </row>
-    <row r="39" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="F39" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="93"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="98"/>
+    </row>
+    <row r="40" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="62" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>69</v>
@@ -7556,7 +7555,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F40" s="35" t="s">
         <v>38</v>
@@ -7564,29 +7563,31 @@
       <c r="G40" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="38"/>
+      <c r="H40" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="66" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F41" s="35" t="s">
         <v>38</v>
@@ -7594,31 +7595,29 @@
       <c r="G41" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>132</v>
+      <c r="H41" s="38"/>
+      <c r="I41" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="62" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>38</v>
@@ -7629,16 +7628,16 @@
       <c r="H42" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" s="62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>823</v>
+        <v>96</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -7646,159 +7645,191 @@
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="101"/>
+      <c r="D43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="H43" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="66" t="s">
-        <v>824</v>
-      </c>
-      <c r="J43" s="62" t="s">
-        <v>825</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J43" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>89</v>
+        <v>822</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>38</v>
-      </c>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="101"/>
       <c r="H44" s="39" t="s">
         <v>38</v>
       </c>
       <c r="I44" s="66" t="s">
-        <v>38</v>
+        <v>823</v>
       </c>
       <c r="J44" s="62" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+        <v>824</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="18" t="s">
+      <c r="E46" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J45" s="63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="52" t="s">
+      <c r="J46" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="51" t="s">
+        <v>833</v>
+      </c>
+      <c r="B47" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C47" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D47" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="25" t="s">
-        <v>831</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="64" t="s">
+      <c r="E47" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="62" t="s">
+      <c r="J47" s="62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" s="62" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J47" s="62" t="s">
-        <v>210</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J46">
-    <sortCondition ref="A14:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:J47">
+    <sortCondition ref="A15:A47"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7864,18 +7895,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
         <v>256</v>
-      </c>
-      <c r="B2" t="s">
-        <v>257</v>
       </c>
       <c r="C2" t="str">
         <f>""""&amp;A2&amp;""""&amp;" : "&amp;""""&amp;B2&amp;""""&amp;","</f>
@@ -7884,10 +7915,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" t="s">
         <v>258</v>
-      </c>
-      <c r="B3" t="s">
-        <v>259</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C7" si="0">""""&amp;A3&amp;""""&amp;" : "&amp;""""&amp;B3&amp;""""&amp;","</f>
@@ -7896,10 +7927,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
         <v>260</v>
-      </c>
-      <c r="B4" t="s">
-        <v>261</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -7908,10 +7939,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
         <v>262</v>
-      </c>
-      <c r="B5" t="s">
-        <v>263</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -7920,10 +7951,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
         <v>264</v>
-      </c>
-      <c r="B6" t="s">
-        <v>265</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -7932,10 +7963,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
         <v>266</v>
-      </c>
-      <c r="B7" t="s">
-        <v>267</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -7944,10 +7975,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7955,7 +7986,7 @@
         <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ref="C11:C12" si="1">""""&amp;A11&amp;""""&amp;" : "&amp;""""&amp;B11&amp;""""&amp;","</f>
@@ -7964,10 +7995,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" t="s">
         <v>269</v>
-      </c>
-      <c r="B12" t="s">
-        <v>270</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
@@ -7976,18 +8007,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B15" t="s">
         <v>542</v>
-      </c>
-      <c r="B15" t="s">
-        <v>543</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ref="C15:C28" si="2">""""&amp;A15&amp;""""&amp;" : "&amp;""""&amp;B15&amp;""""&amp;","</f>
@@ -7996,10 +8027,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B16" t="s">
         <v>544</v>
-      </c>
-      <c r="B16" t="s">
-        <v>545</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="2"/>
@@ -8008,10 +8039,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B17" t="s">
         <v>546</v>
-      </c>
-      <c r="B17" t="s">
-        <v>547</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="2"/>
@@ -8020,10 +8051,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="2"/>
@@ -8032,10 +8063,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B19" t="s">
         <v>549</v>
-      </c>
-      <c r="B19" t="s">
-        <v>550</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="2"/>
@@ -8044,10 +8075,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B20" t="s">
         <v>551</v>
-      </c>
-      <c r="B20" t="s">
-        <v>552</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="2"/>
@@ -8056,10 +8087,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B21" t="s">
         <v>553</v>
-      </c>
-      <c r="B21" t="s">
-        <v>554</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="2"/>
@@ -8068,7 +8099,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B22" t="s">
         <v>131</v>
@@ -8080,10 +8111,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B23" t="s">
         <v>556</v>
-      </c>
-      <c r="B23" t="s">
-        <v>557</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="2"/>
@@ -8092,10 +8123,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B24" t="s">
         <v>558</v>
-      </c>
-      <c r="B24" t="s">
-        <v>559</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="2"/>
@@ -8104,10 +8135,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B25" t="s">
         <v>560</v>
-      </c>
-      <c r="B25" t="s">
-        <v>561</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="2"/>
@@ -8116,10 +8147,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B26" t="s">
         <v>562</v>
-      </c>
-      <c r="B26" t="s">
-        <v>563</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="2"/>
@@ -8128,10 +8159,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B27" t="s">
         <v>564</v>
-      </c>
-      <c r="B27" t="s">
-        <v>565</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="2"/>
@@ -8140,10 +8171,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B28" t="s">
         <v>566</v>
-      </c>
-      <c r="B28" t="s">
-        <v>567</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="2"/>
@@ -8152,15 +8183,15 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
@@ -8172,10 +8203,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="3"/>
@@ -8184,18 +8215,18 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -8203,7 +8234,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -8211,7 +8242,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -8219,7 +8250,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -8227,15 +8258,15 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B42" s="85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -8243,7 +8274,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -8251,7 +8282,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -8259,7 +8290,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -8267,7 +8298,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -8275,23 +8306,23 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B49" s="85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" ref="C50:C78" si="4">""""&amp;A50&amp;""""&amp;" : "&amp;""""&amp;B50&amp;""""&amp;","</f>
@@ -8300,10 +8331,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="4"/>
@@ -8312,10 +8343,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="4"/>
@@ -8324,10 +8355,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="4"/>
@@ -8336,10 +8367,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="4"/>
@@ -8348,10 +8379,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="4"/>
@@ -8360,10 +8391,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="4"/>
@@ -8372,10 +8403,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="4"/>
@@ -8384,10 +8415,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="4"/>
@@ -8396,10 +8427,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="4"/>
@@ -8408,10 +8439,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="4"/>
@@ -8420,10 +8451,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B61" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="4"/>
@@ -8432,10 +8463,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="4"/>
@@ -8444,10 +8475,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="4"/>
@@ -8456,10 +8487,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B64" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="4"/>
@@ -8468,10 +8499,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="4"/>
@@ -8480,10 +8511,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="4"/>
@@ -8492,10 +8523,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B67" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="4"/>
@@ -8504,10 +8535,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="4"/>
@@ -8516,10 +8547,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="4"/>
@@ -8528,10 +8559,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B70" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="4"/>
@@ -8540,10 +8571,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="4"/>
@@ -8552,10 +8583,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="4"/>
@@ -8564,10 +8595,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="4"/>
@@ -8576,10 +8607,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B74" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="4"/>
@@ -8588,10 +8619,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="4"/>
@@ -8600,10 +8631,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="4"/>
@@ -8612,10 +8643,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="4"/>
@@ -8624,10 +8655,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="4"/>
@@ -8636,10 +8667,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B81" s="85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -8647,7 +8678,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" ref="C82:C143" si="5">""""&amp;A82&amp;""""&amp;" : "&amp;""""&amp;B82&amp;""""&amp;","</f>
@@ -8659,7 +8690,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="5"/>
@@ -8671,7 +8702,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="5"/>
@@ -8683,7 +8714,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="5"/>
@@ -8695,7 +8726,7 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="5"/>
@@ -8707,7 +8738,7 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="5"/>
@@ -8719,7 +8750,7 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="5"/>
@@ -8731,7 +8762,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="5"/>
@@ -8743,7 +8774,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="5"/>
@@ -8755,7 +8786,7 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="5"/>
@@ -8767,7 +8798,7 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="5"/>
@@ -8779,7 +8810,7 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="5"/>
@@ -8791,7 +8822,7 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="5"/>
@@ -8803,7 +8834,7 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="5"/>
@@ -8815,7 +8846,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="5"/>
@@ -8827,7 +8858,7 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="5"/>
@@ -8839,7 +8870,7 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="5"/>
@@ -8851,7 +8882,7 @@
         <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="5"/>
@@ -8863,7 +8894,7 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="5"/>
@@ -8875,7 +8906,7 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="5"/>
@@ -8887,7 +8918,7 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="5"/>
@@ -8899,7 +8930,7 @@
         <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="5"/>
@@ -8911,7 +8942,7 @@
         <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="5"/>
@@ -8923,7 +8954,7 @@
         <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="5"/>
@@ -8935,7 +8966,7 @@
         <v>25</v>
       </c>
       <c r="B106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="5"/>
@@ -8947,7 +8978,7 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="5"/>
@@ -8959,7 +8990,7 @@
         <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="5"/>
@@ -8971,7 +9002,7 @@
         <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="5"/>
@@ -8983,7 +9014,7 @@
         <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="5"/>
@@ -8995,7 +9026,7 @@
         <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="5"/>
@@ -9007,7 +9038,7 @@
         <v>31</v>
       </c>
       <c r="B112" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="5"/>
@@ -9019,7 +9050,7 @@
         <v>32</v>
       </c>
       <c r="B113" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="5"/>
@@ -9031,7 +9062,7 @@
         <v>33</v>
       </c>
       <c r="B114" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="5"/>
@@ -9043,7 +9074,7 @@
         <v>34</v>
       </c>
       <c r="B115" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="5"/>
@@ -9055,7 +9086,7 @@
         <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="5"/>
@@ -9067,7 +9098,7 @@
         <v>36</v>
       </c>
       <c r="B117" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="5"/>
@@ -9079,7 +9110,7 @@
         <v>37</v>
       </c>
       <c r="B118" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="5"/>
@@ -9091,7 +9122,7 @@
         <v>38</v>
       </c>
       <c r="B119" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="5"/>
@@ -9103,7 +9134,7 @@
         <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="5"/>
@@ -9115,7 +9146,7 @@
         <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="5"/>
@@ -9127,7 +9158,7 @@
         <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="5"/>
@@ -9139,7 +9170,7 @@
         <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="5"/>
@@ -9151,7 +9182,7 @@
         <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="5"/>
@@ -9163,7 +9194,7 @@
         <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="5"/>
@@ -9175,7 +9206,7 @@
         <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="5"/>
@@ -9187,7 +9218,7 @@
         <v>46</v>
       </c>
       <c r="B127" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="5"/>
@@ -9199,7 +9230,7 @@
         <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="5"/>
@@ -9211,7 +9242,7 @@
         <v>48</v>
       </c>
       <c r="B129" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="5"/>
@@ -9223,7 +9254,7 @@
         <v>49</v>
       </c>
       <c r="B130" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="5"/>
@@ -9235,7 +9266,7 @@
         <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="5"/>
@@ -9247,7 +9278,7 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="5"/>
@@ -9259,7 +9290,7 @@
         <v>52</v>
       </c>
       <c r="B133" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="5"/>
@@ -9271,7 +9302,7 @@
         <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="5"/>
@@ -9283,7 +9314,7 @@
         <v>54</v>
       </c>
       <c r="B135" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="5"/>
@@ -9295,7 +9326,7 @@
         <v>55</v>
       </c>
       <c r="B136" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="5"/>
@@ -9307,7 +9338,7 @@
         <v>56</v>
       </c>
       <c r="B137" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="5"/>
@@ -9319,7 +9350,7 @@
         <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="5"/>
@@ -9331,7 +9362,7 @@
         <v>58</v>
       </c>
       <c r="B139" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="5"/>
@@ -9343,7 +9374,7 @@
         <v>59</v>
       </c>
       <c r="B140" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="5"/>
@@ -9355,7 +9386,7 @@
         <v>60</v>
       </c>
       <c r="B141" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="5"/>
@@ -9367,7 +9398,7 @@
         <v>61</v>
       </c>
       <c r="B142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="5"/>
@@ -9379,7 +9410,7 @@
         <v>62</v>
       </c>
       <c r="B143" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="5"/>
@@ -9388,34 +9419,34 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B144" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B145" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B146" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B147" s="85" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -9423,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -9431,7 +9462,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -9439,7 +9470,7 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -9447,7 +9478,7 @@
         <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -9455,7 +9486,7 @@
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -9463,7 +9494,7 @@
         <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -9471,7 +9502,7 @@
         <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -9479,7 +9510,7 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -9487,7 +9518,7 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -9495,7 +9526,7 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -9503,7 +9534,7 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -9511,7 +9542,7 @@
         <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -9519,7 +9550,7 @@
         <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -9527,7 +9558,7 @@
         <v>14</v>
       </c>
       <c r="B161" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -9535,7 +9566,7 @@
         <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -9543,7 +9574,7 @@
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -9551,7 +9582,7 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -9559,7 +9590,7 @@
         <v>18</v>
       </c>
       <c r="B165" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -9567,7 +9598,7 @@
         <v>19</v>
       </c>
       <c r="B166" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -9575,7 +9606,7 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -9583,7 +9614,7 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -9591,7 +9622,7 @@
         <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -9599,7 +9630,7 @@
         <v>23</v>
       </c>
       <c r="B170" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -9607,7 +9638,7 @@
         <v>24</v>
       </c>
       <c r="B171" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -9615,7 +9646,7 @@
         <v>25</v>
       </c>
       <c r="B172" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -9623,7 +9654,7 @@
         <v>26</v>
       </c>
       <c r="B173" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -9631,7 +9662,7 @@
         <v>27</v>
       </c>
       <c r="B174" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -9639,7 +9670,7 @@
         <v>28</v>
       </c>
       <c r="B175" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -9647,7 +9678,7 @@
         <v>29</v>
       </c>
       <c r="B176" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -9655,7 +9686,7 @@
         <v>30</v>
       </c>
       <c r="B177" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -9663,7 +9694,7 @@
         <v>31</v>
       </c>
       <c r="B178" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -9671,7 +9702,7 @@
         <v>32</v>
       </c>
       <c r="B179" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -9679,7 +9710,7 @@
         <v>33</v>
       </c>
       <c r="B180" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -9687,7 +9718,7 @@
         <v>34</v>
       </c>
       <c r="B181" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -9695,7 +9726,7 @@
         <v>35</v>
       </c>
       <c r="B182" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -9703,15 +9734,15 @@
         <v>36</v>
       </c>
       <c r="B183" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B186" s="85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -9719,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -9727,7 +9758,7 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -9735,7 +9766,7 @@
         <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -9743,7 +9774,7 @@
         <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -9751,7 +9782,7 @@
         <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -9759,7 +9790,7 @@
         <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -9767,7 +9798,7 @@
         <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -9775,7 +9806,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -9783,18 +9814,18 @@
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="85" t="s">
+        <v>536</v>
+      </c>
+      <c r="B198" s="85" t="s">
         <v>537</v>
       </c>
-      <c r="B198" s="85" t="s">
-        <v>538</v>
-      </c>
       <c r="C198" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -9802,10 +9833,10 @@
         <v>1</v>
       </c>
       <c r="B199" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C199" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -9813,10 +9844,10 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C200" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -9824,10 +9855,10 @@
         <v>3</v>
       </c>
       <c r="B201" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C201" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -9835,10 +9866,10 @@
         <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C202" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -9846,10 +9877,10 @@
         <v>5</v>
       </c>
       <c r="B203" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C203" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -9857,10 +9888,10 @@
         <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C204" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -9868,10 +9899,10 @@
         <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C205" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -9879,10 +9910,10 @@
         <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C206" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -9890,18 +9921,18 @@
         <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C207" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B210" s="85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -9909,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="B211" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -9917,7 +9948,7 @@
         <v>2</v>
       </c>
       <c r="B212" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -9925,15 +9956,15 @@
         <v>3</v>
       </c>
       <c r="B213" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B216" s="85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -9941,7 +9972,7 @@
         <v>1</v>
       </c>
       <c r="B217" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -9949,7 +9980,7 @@
         <v>2</v>
       </c>
       <c r="B218" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -9957,7 +9988,7 @@
         <v>3</v>
       </c>
       <c r="B219" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -9965,7 +9996,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -9973,7 +10004,7 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -9981,7 +10012,7 @@
         <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -9989,7 +10020,7 @@
         <v>7</v>
       </c>
       <c r="B223" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -9997,7 +10028,7 @@
         <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -10005,7 +10036,7 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -10013,7 +10044,7 @@
         <v>10</v>
       </c>
       <c r="B226" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -10021,7 +10052,7 @@
         <v>11</v>
       </c>
       <c r="B227" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -10029,7 +10060,7 @@
         <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -10037,7 +10068,7 @@
         <v>13</v>
       </c>
       <c r="B229" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -10045,7 +10076,7 @@
         <v>14</v>
       </c>
       <c r="B230" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -10053,7 +10084,7 @@
         <v>15</v>
       </c>
       <c r="B231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -10061,7 +10092,7 @@
         <v>16</v>
       </c>
       <c r="B232" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -10069,7 +10100,7 @@
         <v>17</v>
       </c>
       <c r="B233" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -10077,7 +10108,7 @@
         <v>18</v>
       </c>
       <c r="B234" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -10085,7 +10116,7 @@
         <v>19</v>
       </c>
       <c r="B235" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -10093,7 +10124,7 @@
         <v>20</v>
       </c>
       <c r="B236" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -10101,7 +10132,7 @@
         <v>21</v>
       </c>
       <c r="B237" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -10109,7 +10140,7 @@
         <v>22</v>
       </c>
       <c r="B238" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -10117,7 +10148,7 @@
         <v>23</v>
       </c>
       <c r="B239" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -10125,7 +10156,7 @@
         <v>24</v>
       </c>
       <c r="B240" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -10133,7 +10164,7 @@
         <v>25</v>
       </c>
       <c r="B241" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -10141,7 +10172,7 @@
         <v>26</v>
       </c>
       <c r="B242" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -10149,7 +10180,7 @@
         <v>27</v>
       </c>
       <c r="B243" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -10157,7 +10188,7 @@
         <v>28</v>
       </c>
       <c r="B244" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -10165,7 +10196,7 @@
         <v>29</v>
       </c>
       <c r="B245" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -10173,7 +10204,7 @@
         <v>30</v>
       </c>
       <c r="B246" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -10181,7 +10212,7 @@
         <v>31</v>
       </c>
       <c r="B247" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -10189,7 +10220,7 @@
         <v>32</v>
       </c>
       <c r="B248" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -10197,7 +10228,7 @@
         <v>33</v>
       </c>
       <c r="B249" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -10205,7 +10236,7 @@
         <v>34</v>
       </c>
       <c r="B250" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -10213,7 +10244,7 @@
         <v>35</v>
       </c>
       <c r="B251" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -10221,7 +10252,7 @@
         <v>36</v>
       </c>
       <c r="B252" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -10229,7 +10260,7 @@
         <v>37</v>
       </c>
       <c r="B253" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -10237,7 +10268,7 @@
         <v>38</v>
       </c>
       <c r="B254" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -10245,7 +10276,7 @@
         <v>39</v>
       </c>
       <c r="B255" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -10253,7 +10284,7 @@
         <v>40</v>
       </c>
       <c r="B256" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -10261,7 +10292,7 @@
         <v>41</v>
       </c>
       <c r="B257" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -10269,7 +10300,7 @@
         <v>42</v>
       </c>
       <c r="B258" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -10277,7 +10308,7 @@
         <v>43</v>
       </c>
       <c r="B259" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -10285,7 +10316,7 @@
         <v>44</v>
       </c>
       <c r="B260" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -10293,7 +10324,7 @@
         <v>45</v>
       </c>
       <c r="B261" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -10301,7 +10332,7 @@
         <v>46</v>
       </c>
       <c r="B262" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -10309,7 +10340,7 @@
         <v>47</v>
       </c>
       <c r="B263" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -10317,7 +10348,7 @@
         <v>48</v>
       </c>
       <c r="B264" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -10325,7 +10356,7 @@
         <v>49</v>
       </c>
       <c r="B265" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -10333,7 +10364,7 @@
         <v>50</v>
       </c>
       <c r="B266" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -10341,7 +10372,7 @@
         <v>51</v>
       </c>
       <c r="B267" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -10349,7 +10380,7 @@
         <v>52</v>
       </c>
       <c r="B268" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -10357,7 +10388,7 @@
         <v>53</v>
       </c>
       <c r="B269" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -10365,7 +10396,7 @@
         <v>54</v>
       </c>
       <c r="B270" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -10373,7 +10404,7 @@
         <v>55</v>
       </c>
       <c r="B271" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -10381,7 +10412,7 @@
         <v>56</v>
       </c>
       <c r="B272" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -10389,7 +10420,7 @@
         <v>57</v>
       </c>
       <c r="B273" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -10397,7 +10428,7 @@
         <v>58</v>
       </c>
       <c r="B274" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -10405,7 +10436,7 @@
         <v>59</v>
       </c>
       <c r="B275" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -10413,7 +10444,7 @@
         <v>60</v>
       </c>
       <c r="B276" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -10421,7 +10452,7 @@
         <v>61</v>
       </c>
       <c r="B277" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -10429,7 +10460,7 @@
         <v>62</v>
       </c>
       <c r="B278" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -10437,7 +10468,7 @@
         <v>63</v>
       </c>
       <c r="B279" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -10445,7 +10476,7 @@
         <v>64</v>
       </c>
       <c r="B280" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -10453,7 +10484,7 @@
         <v>65</v>
       </c>
       <c r="B281" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -10461,7 +10492,7 @@
         <v>66</v>
       </c>
       <c r="B282" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -10469,7 +10500,7 @@
         <v>67</v>
       </c>
       <c r="B283" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -10477,7 +10508,7 @@
         <v>68</v>
       </c>
       <c r="B284" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -10485,7 +10516,7 @@
         <v>69</v>
       </c>
       <c r="B285" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -10493,7 +10524,7 @@
         <v>70</v>
       </c>
       <c r="B286" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -10501,7 +10532,7 @@
         <v>71</v>
       </c>
       <c r="B287" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -10509,7 +10540,7 @@
         <v>72</v>
       </c>
       <c r="B288" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -10517,7 +10548,7 @@
         <v>73</v>
       </c>
       <c r="B289" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -10525,7 +10556,7 @@
         <v>74</v>
       </c>
       <c r="B290" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -10533,7 +10564,7 @@
         <v>75</v>
       </c>
       <c r="B291" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -10541,7 +10572,7 @@
         <v>76</v>
       </c>
       <c r="B292" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -10549,7 +10580,7 @@
         <v>77</v>
       </c>
       <c r="B293" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -10557,23 +10588,23 @@
         <v>78</v>
       </c>
       <c r="B294" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="85" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B300" s="85" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B301" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" ref="C301:C364" si="6">""""&amp;A301&amp;""""&amp;" : "&amp;""""&amp;B301&amp;""""&amp;","</f>
@@ -10583,10 +10614,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B302" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="6"/>
@@ -10596,10 +10627,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B303" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="6"/>
@@ -10609,10 +10640,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B304" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="6"/>
@@ -10622,10 +10653,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B305" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="6"/>
@@ -10635,10 +10666,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B306" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="6"/>
@@ -10648,10 +10679,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B307" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="6"/>
@@ -10661,10 +10692,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B308" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="6"/>
@@ -10674,10 +10705,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B309" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="6"/>
@@ -10687,10 +10718,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B310" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="6"/>
@@ -10700,10 +10731,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B311" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="6"/>
@@ -10713,10 +10744,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B312" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="6"/>
@@ -10726,10 +10757,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B313" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="6"/>
@@ -10739,10 +10770,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B314" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="6"/>
@@ -10752,10 +10783,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B315" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="6"/>
@@ -10765,10 +10796,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B316" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="6"/>
@@ -10778,10 +10809,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B317" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="6"/>
@@ -10791,10 +10822,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B318" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="6"/>
@@ -10804,10 +10835,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B319" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="6"/>
@@ -10817,10 +10848,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B320" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="6"/>
@@ -10830,10 +10861,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B321" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C321" t="str">
         <f t="shared" si="6"/>
@@ -10843,10 +10874,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B322" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C322" t="str">
         <f t="shared" si="6"/>
@@ -10856,10 +10887,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B323" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C323" t="str">
         <f t="shared" si="6"/>
@@ -10869,10 +10900,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B324" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="6"/>
@@ -10882,10 +10913,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B325" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="6"/>
@@ -10895,10 +10926,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B326" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="6"/>
@@ -10908,10 +10939,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B327" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="6"/>
@@ -10921,10 +10952,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B328" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" si="6"/>
@@ -10934,10 +10965,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B329" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="6"/>
@@ -10947,10 +10978,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B330" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="6"/>
@@ -10960,10 +10991,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B331" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="6"/>
@@ -10973,10 +11004,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B332" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C332" t="str">
         <f t="shared" si="6"/>
@@ -10986,10 +11017,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B333" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C333" t="str">
         <f t="shared" si="6"/>
@@ -10999,10 +11030,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B334" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="6"/>
@@ -11012,10 +11043,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B335" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="6"/>
@@ -11025,10 +11056,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B336" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="6"/>
@@ -11038,10 +11069,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B337" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="6"/>
@@ -11051,10 +11082,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B338" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="6"/>
@@ -11064,10 +11095,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B339" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="6"/>
@@ -11077,10 +11108,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B340" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C340" t="str">
         <f t="shared" si="6"/>
@@ -11090,10 +11121,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B341" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C341" t="str">
         <f t="shared" si="6"/>
@@ -11103,10 +11134,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B342" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="6"/>
@@ -11116,10 +11147,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B343" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="6"/>
@@ -11129,10 +11160,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B344" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="6"/>
@@ -11142,10 +11173,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B345" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="6"/>
@@ -11155,10 +11186,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B346" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="6"/>
@@ -11168,10 +11199,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B347" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="6"/>
@@ -11181,10 +11212,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B348" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="6"/>
@@ -11194,10 +11225,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B349" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="6"/>
@@ -11207,10 +11238,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B350" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="6"/>
@@ -11220,10 +11251,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B351" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="6"/>
@@ -11233,10 +11264,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B352" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="6"/>
@@ -11246,10 +11277,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B353" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C353" t="str">
         <f t="shared" si="6"/>
@@ -11259,10 +11290,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B354" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="6"/>
@@ -11272,10 +11303,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B355" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C355" t="str">
         <f t="shared" si="6"/>
@@ -11285,10 +11316,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B356" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C356" t="str">
         <f t="shared" si="6"/>
@@ -11298,10 +11329,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B357" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C357" t="str">
         <f t="shared" si="6"/>
@@ -11311,10 +11342,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B358" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C358" t="str">
         <f t="shared" si="6"/>
@@ -11324,10 +11355,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B359" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C359" t="str">
         <f t="shared" si="6"/>
@@ -11337,10 +11368,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B360" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C360" t="str">
         <f t="shared" si="6"/>
@@ -11350,10 +11381,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B361" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C361" t="str">
         <f t="shared" si="6"/>
@@ -11363,10 +11394,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B362" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C362" t="str">
         <f t="shared" si="6"/>
@@ -11376,10 +11407,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B363" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C363" t="str">
         <f t="shared" si="6"/>
@@ -11389,10 +11420,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B364" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C364" t="str">
         <f t="shared" si="6"/>
@@ -11402,10 +11433,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B365" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C365" t="str">
         <f t="shared" ref="C365:C405" si="7">""""&amp;A365&amp;""""&amp;" : "&amp;""""&amp;B365&amp;""""&amp;","</f>
@@ -11415,10 +11446,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B366" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C366" t="str">
         <f t="shared" si="7"/>
@@ -11428,10 +11459,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B367" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C367" t="str">
         <f t="shared" si="7"/>
@@ -11441,10 +11472,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B368" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C368" t="str">
         <f t="shared" si="7"/>
@@ -11454,10 +11485,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B369" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C369" t="str">
         <f t="shared" si="7"/>
@@ -11467,10 +11498,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B370" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C370" t="str">
         <f t="shared" si="7"/>
@@ -11480,10 +11511,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B371" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C371" t="str">
         <f t="shared" si="7"/>
@@ -11493,10 +11524,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B372" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C372" t="str">
         <f t="shared" si="7"/>
@@ -11506,10 +11537,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B373" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C373" t="str">
         <f t="shared" si="7"/>
@@ -11519,10 +11550,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B374" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C374" t="str">
         <f t="shared" si="7"/>
@@ -11532,10 +11563,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B375" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C375" t="str">
         <f t="shared" si="7"/>
@@ -11545,10 +11576,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B376" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C376" t="str">
         <f t="shared" si="7"/>
@@ -11558,10 +11589,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B377" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C377" t="str">
         <f t="shared" si="7"/>
@@ -11571,10 +11602,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B378" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C378" t="str">
         <f t="shared" si="7"/>
@@ -11584,10 +11615,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B379" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C379" t="str">
         <f t="shared" si="7"/>
@@ -11597,10 +11628,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B380" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C380" t="str">
         <f t="shared" si="7"/>
@@ -11610,10 +11641,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B381" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C381" t="str">
         <f t="shared" si="7"/>
@@ -11623,10 +11654,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B382" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C382" t="str">
         <f t="shared" si="7"/>
@@ -11636,10 +11667,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B383" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C383" t="str">
         <f t="shared" si="7"/>
@@ -11649,10 +11680,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B384" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C384" t="str">
         <f t="shared" si="7"/>
@@ -11662,10 +11693,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B385" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C385" t="str">
         <f t="shared" si="7"/>
@@ -11675,10 +11706,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B386" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C386" t="str">
         <f t="shared" si="7"/>
@@ -11688,10 +11719,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B387" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C387" t="str">
         <f t="shared" si="7"/>
@@ -11701,10 +11732,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B388" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C388" t="str">
         <f t="shared" si="7"/>
@@ -11714,10 +11745,10 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B389" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C389" t="str">
         <f t="shared" si="7"/>
@@ -11727,10 +11758,10 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B390" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C390" t="str">
         <f t="shared" si="7"/>
@@ -11740,10 +11771,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B391" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C391" t="str">
         <f t="shared" si="7"/>
@@ -11753,10 +11784,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B392" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C392" t="str">
         <f t="shared" si="7"/>
@@ -11766,10 +11797,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B393" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C393" t="str">
         <f t="shared" si="7"/>
@@ -11779,10 +11810,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B394" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C394" t="str">
         <f t="shared" si="7"/>
@@ -11792,10 +11823,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B395" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C395" t="str">
         <f t="shared" si="7"/>
@@ -11805,10 +11836,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B396" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C396" t="str">
         <f t="shared" si="7"/>
@@ -11818,10 +11849,10 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B397" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C397" t="str">
         <f t="shared" si="7"/>
@@ -11831,10 +11862,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B398" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C398" t="str">
         <f t="shared" si="7"/>
@@ -11844,10 +11875,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B399" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C399" t="str">
         <f t="shared" si="7"/>
@@ -11857,10 +11888,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B400" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C400" t="str">
         <f t="shared" si="7"/>
@@ -11870,10 +11901,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B401" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C401" t="str">
         <f t="shared" si="7"/>
@@ -11883,10 +11914,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B402" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C402" t="str">
         <f t="shared" si="7"/>
@@ -11896,10 +11927,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B403" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C403" t="str">
         <f t="shared" si="7"/>
@@ -11909,10 +11940,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B404" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C404" t="str">
         <f t="shared" si="7"/>
@@ -11922,10 +11953,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B405" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C405" t="str">
         <f t="shared" si="7"/>

--- a/Kansas/WaterAllocation/KS_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Kansas/WaterAllocation/KS_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Kansas\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F0E05-DA0B-4657-98C4-8D5D314B0C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4324898-E4B1-433D-B245-AD7F4ECDB73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="837">
   <si>
     <t>Name</t>
   </si>
@@ -1797,9 +1797,6 @@
     <t>Surface Ground Water</t>
   </si>
   <si>
-    <t>Water Information Management and Analysis System (WIMAS)</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
@@ -2526,9 +2523,6 @@
     <t>see pre-processing for code</t>
   </si>
   <si>
-    <t>WIMAS</t>
-  </si>
-  <si>
     <t>Consumptive Use</t>
   </si>
   <si>
@@ -2587,6 +2581,23 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>The Kansas Department of Agriculture, Division of Water Resources (DWR) and Kansas Geological Survey (KGS) exercises great care in the creation of its Water Information Management and Analysis System (WIMAS) program. However, the DWR or KGS offers no warranty or guarantee of the accuracy or completeness of the WIMAS program and the data contained therein, the DWR or KGS assumes no liability for errors in, interpretation of, or use of these data. Water rights are dynamic and often complex entities. The water rights data used in WIMAS represents the water rights files as of 01/22/2023 and should not be viewed as current. A new water rights data set for the WIMAS program is generated weekly. Information provided in WIMAS can not be used to determine whether a water right has been lawfully used in accordance with the terms, conditions and limitations specified in the vested right, certificate or permit. To obtain current standing information on a particular water right file, please contact the DWR. The term "status", as used in the WIMAS program, denotes one of the following phases of a water right's development: (1) The application is pending initial review by the DWR; (2) A permit has been issued; (3) The DWR has received a notice and proof of completion of the diversion works; (4) The time to perfect the water right has expired; (5) A Certificate of Appropriation has been issued; or (6) The water right has been dismissed for some reason.
+Information contained in the WIMAS program is a public record; however, by accessing the WIMAS program, associated data, and any products generated by WIMAS (i.e. maps, graphs, tables, and reports) the user agrees that they will not use them for selling, or offering the sale, of any property or services in violation of K.S.A 45-220(c)(2).
+For more information contact the DWR via the Internet or at (785) 564-6640.</t>
+  </si>
+  <si>
+    <t>Kansas Water Right Method</t>
+  </si>
+  <si>
+    <t>https://agriculture.ks.gov/divisions-programs/dwr/water-appropriation/water-law-basics#:~:text=The%20right%20to%20use%20Kansas,.%20.%20.</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
+  </si>
+  <si>
+    <t>Use wr_id_x with 'https://www.swc.nd.gov/info_edu/map_data_resources/waterpermits/single.php?id='</t>
   </si>
 </sst>
 </file>
@@ -3377,7 +3388,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3433,19 +3444,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3544,12 +3549,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3601,15 +3600,11 @@
     <xf numFmtId="14" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3622,7 +3617,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3667,9 +3661,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4035,94 +4026,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="67" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-    </row>
-    <row r="4" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-    </row>
-    <row r="5" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="B2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="73" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="78"/>
-    </row>
-    <row r="7" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-    </row>
-    <row r="8" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-    </row>
-    <row r="9" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="73"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
         <v>239</v>
       </c>
       <c r="B9" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="77" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="77" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="77" t="s">
-        <v>815</v>
+      <c r="B12" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="77" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="77"/>
+      <c r="B13" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="B15" t="s">
         <v>572</v>
       </c>
-      <c r="B15" s="77" t="s">
-        <v>573</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="77" t="s">
-        <v>808</v>
+      <c r="B16" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -4138,8 +4111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4148,7 +4121,7 @@
     <col min="2" max="2" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.5546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="5" bestFit="1" customWidth="1"/>
@@ -4209,13 +4182,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -4224,7 +4197,7 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4232,27 +4205,27 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>825</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>823</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4272,15 +4245,15 @@
       <c r="E5" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="58" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4297,18 +4270,18 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="66">
         <v>0.5</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="58" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4325,22 +4298,22 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="62" t="s">
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -4353,22 +4326,22 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -4382,15 +4355,15 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+        <v>832</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="58" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4408,21 +4381,21 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>813</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+        <v>833</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="58" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -4435,18 +4408,18 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="58" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4463,18 +4436,18 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="19" t="s">
+        <v>835</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="58" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4482,8 +4455,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" location=":~:text=The%20right%20to%20use%20Kansas,.%20.%20." xr:uid="{6DDE0822-4F0D-4B47-9B42-314B0B693AEF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4562,13 +4538,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -4577,7 +4553,7 @@
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4585,22 +4561,22 @@
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>826</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="46" t="s">
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>824</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -4609,7 +4585,7 @@
       <c r="I4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4629,10 +4605,10 @@
       <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -4641,7 +4617,7 @@
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="58" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4661,10 +4637,10 @@
       <c r="E6" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -4673,7 +4649,7 @@
       <c r="I6" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="58" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4693,10 +4669,10 @@
       <c r="E7" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -4705,7 +4681,7 @@
       <c r="I7" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="58" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4723,12 +4699,12 @@
         <v>20</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -4737,7 +4713,7 @@
       <c r="I8" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4755,12 +4731,12 @@
         <v>20</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -4769,7 +4745,7 @@
       <c r="I9" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="58" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4789,10 +4765,10 @@
       <c r="E10" s="17">
         <v>1</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -4801,7 +4777,7 @@
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="58" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4821,10 +4797,10 @@
       <c r="E11" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -4833,7 +4809,7 @@
       <c r="I11" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="58" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4851,12 +4827,12 @@
         <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
+        <v>812</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -4865,7 +4841,7 @@
       <c r="I12" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="58" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4883,12 +4859,12 @@
         <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="21" t="s">
+        <v>812</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -4897,7 +4873,7 @@
       <c r="I13" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="58" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4985,13 +4961,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -5000,7 +4976,7 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5008,22 +4984,22 @@
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>827</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="46" t="s">
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>825</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -5032,7 +5008,7 @@
       <c r="I4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5049,13 +5025,13 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="87" t="s">
-        <v>576</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="E5" s="80" t="s">
+        <v>575</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -5064,7 +5040,7 @@
       <c r="I5" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="58" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5082,12 +5058,12 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -5096,7 +5072,7 @@
       <c r="I6" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="58" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5113,13 +5089,13 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="88" t="s">
-        <v>577</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="E7" s="81" t="s">
+        <v>576</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -5128,7 +5104,7 @@
       <c r="I7" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="58" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5146,12 +5122,12 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -5160,7 +5136,7 @@
       <c r="I8" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5178,12 +5154,12 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -5192,7 +5168,7 @@
       <c r="I9" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="58" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5210,12 +5186,12 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -5224,7 +5200,7 @@
       <c r="I10" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="58" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5241,13 +5217,13 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="88" t="s">
-        <v>580</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="81" t="s">
+        <v>579</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -5256,7 +5232,7 @@
       <c r="I11" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="58" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5274,12 +5250,12 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -5288,7 +5264,7 @@
       <c r="I12" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="58" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5406,20 +5382,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5427,29 +5403,29 @@
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>588</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>587</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5466,20 +5442,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="71" t="s">
         <v>568</v>
       </c>
-      <c r="F5" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="62" t="s">
+      <c r="F5" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="58" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5496,20 +5472,20 @@
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="71" t="s">
         <v>568</v>
       </c>
-      <c r="F6" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="62" t="s">
+      <c r="F6" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="58" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5526,20 +5502,20 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="19"/>
+      <c r="F7" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="58" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5556,20 +5532,20 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="75" t="s">
-        <v>586</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>583</v>
-      </c>
-      <c r="G8" s="83" t="s">
+      <c r="E8" s="71" t="s">
+        <v>585</v>
+      </c>
+      <c r="F8" s="71" t="s">
         <v>582</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="G8" s="77" t="s">
+        <v>581</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5586,20 +5562,20 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>583</v>
-      </c>
-      <c r="G9" s="83" t="s">
+      <c r="E9" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="71" t="s">
         <v>582</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="G9" s="77" t="s">
+        <v>581</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="58" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5616,20 +5592,20 @@
       <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>582</v>
+      </c>
+      <c r="G10" s="77" t="s">
         <v>584</v>
       </c>
-      <c r="F10" s="75" t="s">
-        <v>583</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>585</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="58" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5725,20 +5701,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5746,27 +5722,27 @@
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>587</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>586</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5783,20 +5759,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="71" t="s">
         <v>568</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="58" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5813,20 +5789,20 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="58" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5843,18 +5819,18 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="63" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="59" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5874,17 +5850,17 @@
       <c r="E8" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5901,18 +5877,18 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="F9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="58" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5929,20 +5905,20 @@
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="62" t="s">
+      <c r="F10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="58" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5959,20 +5935,20 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="63" t="s">
+      <c r="F11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="59" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5989,20 +5965,20 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="63" t="s">
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="59" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6019,20 +5995,20 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>797</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>795</v>
-      </c>
-      <c r="H13" s="24"/>
+      <c r="E13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H13" s="22"/>
       <c r="I13" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="58" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6049,20 +6025,20 @@
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>797</v>
-      </c>
-      <c r="G14" s="21" t="s">
+      <c r="E14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>796</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="G14" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="H14" s="22"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="58" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6079,20 +6055,20 @@
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="62" t="s">
+      <c r="F15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="58" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6109,26 +6085,26 @@
       <c r="D16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="62" t="s">
+      <c r="F16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="58" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -6139,20 +6115,20 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="64" t="s">
-        <v>800</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="90"/>
-      <c r="I17" s="91" t="s">
-        <v>800</v>
-      </c>
-      <c r="J17" s="90"/>
+      <c r="E17" s="60" t="s">
+        <v>799</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84" t="s">
+        <v>799</v>
+      </c>
+      <c r="J17" s="83"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -6165,20 +6141,20 @@
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="19"/>
+      <c r="E18" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="58" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6195,20 +6171,20 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="E19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>797</v>
       </c>
-      <c r="G19" s="26" t="s">
-        <v>798</v>
-      </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
-      <c r="J19" s="62" t="s">
+      <c r="J19" s="58" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6225,20 +6201,20 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="19"/>
+      <c r="F20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="59" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6255,20 +6231,20 @@
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="19"/>
+      <c r="F21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="58" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6285,20 +6261,20 @@
       <c r="D22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="19"/>
+      <c r="E22" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="58" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6315,20 +6291,20 @@
       <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="63" t="s">
+      <c r="F23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="59" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6345,8 +6321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6403,239 +6379,239 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="64">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="60">
         <v>50004</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="58" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="64">
+      <c r="E4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="60">
         <v>43</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="58" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="64">
+      <c r="E5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="60">
         <v>1</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="58" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="64">
+      <c r="E6" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="60">
         <v>39035</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="58" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="C7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="64">
+      <c r="E7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="60">
         <v>63</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="58" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="64">
+      <c r="E8" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="60">
         <v>371091</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51" t="s">
-        <v>831</v>
-      </c>
-      <c r="B9" s="52" t="s">
+    <row r="9" spans="1:10" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
+        <v>829</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>832</v>
-      </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="62"/>
-    </row>
-    <row r="10" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="C9" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="58"/>
+    </row>
+    <row r="10" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>825</v>
-      </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="62" t="s">
+      <c r="C10" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="58" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6649,21 +6625,21 @@
       <c r="C11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>827</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="62" t="s">
+      <c r="D11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>825</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="58" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6677,21 +6653,21 @@
       <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>829</v>
-      </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="62" t="s">
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>827</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="58" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6705,21 +6681,21 @@
       <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="100" t="s">
-        <v>826</v>
-      </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="62" t="s">
+      <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>824</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="58" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6727,63 +6703,63 @@
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>828</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="62" t="s">
+      <c r="C14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>826</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="58" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
+    <row r="15" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="64">
+      <c r="F15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="60">
         <v>5363</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="58" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>94</v>
       </c>
@@ -6796,26 +6772,26 @@
       <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F16" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="39" t="s">
+      <c r="F16" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -6828,54 +6804,54 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F17" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="39" t="s">
+      <c r="F17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="38" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+    <row r="18" spans="1:10" s="36" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F18" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="64" t="s">
+      <c r="F18" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="58" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6892,22 +6868,22 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="39" t="s">
+      <c r="F19" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="59" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6924,26 +6900,26 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="39" t="s">
+      <c r="F20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="58" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>88</v>
       </c>
@@ -6956,22 +6932,22 @@
       <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="63" t="s">
+      <c r="F21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="59" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6988,54 +6964,54 @@
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="39" t="s">
+      <c r="F22" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="18">
         <v>5200</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="58" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="92" t="s">
-        <v>801</v>
-      </c>
-      <c r="B23" s="52" t="s">
+    <row r="23" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="85" t="s">
+        <v>800</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F23" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="94">
+      <c r="F23" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="87">
         <v>1</v>
       </c>
-      <c r="J23" s="95" t="s">
+      <c r="J23" s="88" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7052,22 +7028,22 @@
       <c r="D24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>583</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>806</v>
-      </c>
-      <c r="H24" s="39" t="s">
+      <c r="E24" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="H24" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="58" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7084,22 +7060,22 @@
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>583</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="H25" s="39" t="s">
+      <c r="E25" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="H25" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="62" t="s">
+      <c r="J25" s="58" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7116,22 +7092,22 @@
       <c r="D26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="39" t="s">
+      <c r="E26" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J26" s="62" t="s">
+      <c r="J26" s="58" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7148,26 +7124,26 @@
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>797</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>794</v>
-      </c>
-      <c r="H27" s="39" t="s">
+      <c r="E27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>796</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="H27" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="62" t="s">
+      <c r="J27" s="58" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="38" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="36" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>152</v>
       </c>
@@ -7180,22 +7156,22 @@
       <c r="D28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F28" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="62" t="s">
+      <c r="F28" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="58" t="s">
         <v>234</v>
       </c>
     </row>
@@ -7212,22 +7188,22 @@
       <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F29" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="67">
+      <c r="F29" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="63">
         <v>44196</v>
       </c>
-      <c r="J29" s="62" t="s">
+      <c r="J29" s="58" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7244,22 +7220,22 @@
       <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F30" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="67">
+      <c r="F30" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="63">
         <v>43831</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="58" t="s">
         <v>202</v>
       </c>
     </row>
@@ -7276,54 +7252,54 @@
       <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>809</v>
-      </c>
-      <c r="H31" s="39" t="s">
+      <c r="E31" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="H31" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J31" s="62" t="s">
+      <c r="J31" s="58" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="92" t="s">
-        <v>803</v>
-      </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>583</v>
-      </c>
-      <c r="G32" s="83" t="s">
-        <v>810</v>
-      </c>
-      <c r="H32" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="94">
+      <c r="D32" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>582</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>809</v>
+      </c>
+      <c r="H32" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="87">
         <v>0</v>
       </c>
-      <c r="J32" s="95" t="s">
+      <c r="J32" s="88" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7340,22 +7316,22 @@
       <c r="D33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="61" t="s">
-        <v>812</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>583</v>
-      </c>
-      <c r="G33" s="21" t="s">
+      <c r="E33" s="57" t="s">
         <v>811</v>
       </c>
-      <c r="H33" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="96" t="s">
+      <c r="F33" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="89" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7372,22 +7348,22 @@
       <c r="D34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F34" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="39" t="s">
+      <c r="F34" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J34" s="63" t="s">
+      <c r="J34" s="59" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7404,26 +7380,26 @@
       <c r="D35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F35" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="39" t="s">
+      <c r="F35" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J35" s="62" t="s">
+      <c r="J35" s="58" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="49" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>100</v>
       </c>
@@ -7436,50 +7412,50 @@
       <c r="D36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F36" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="39" t="s">
+      <c r="F36" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J36" s="62" t="s">
+      <c r="J36" s="58" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="60">
+      <c r="C37" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="56">
         <v>44691</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="68">
+      <c r="F37" s="33"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="64">
         <v>43874</v>
       </c>
-      <c r="J37" s="62" t="s">
+      <c r="J37" s="58" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7496,50 +7472,50 @@
       <c r="D38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F38" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="69">
+      <c r="F38" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="65">
         <v>33187</v>
       </c>
-      <c r="J38" s="63" t="s">
+      <c r="J38" s="59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="92" t="s">
+    <row r="39" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="85" t="s">
+        <v>803</v>
+      </c>
+      <c r="B39" s="50" t="s">
         <v>804</v>
       </c>
-      <c r="B39" s="52" t="s">
-        <v>805</v>
-      </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="35">
+      <c r="D39" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="33">
         <v>0</v>
       </c>
-      <c r="F39" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="93"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="98"/>
+      <c r="F39" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="86"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="91"/>
     </row>
     <row r="40" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -7554,22 +7530,22 @@
       <c r="D40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F40" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="62" t="s">
+      <c r="F40" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="58" t="s">
         <v>205</v>
       </c>
     </row>
@@ -7586,20 +7562,20 @@
       <c r="D41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F41" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="62" t="s">
+      <c r="F41" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="36"/>
+      <c r="I41" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="58" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7616,22 +7592,22 @@
       <c r="D42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F42" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="39" t="s">
+      <c r="F42" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J42" s="62" t="s">
+      <c r="J42" s="58" t="s">
         <v>235</v>
       </c>
     </row>
@@ -7648,28 +7624,28 @@
       <c r="D43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F43" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="63" t="s">
+      <c r="F43" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -7682,15 +7658,15 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="66" t="s">
-        <v>823</v>
-      </c>
-      <c r="J44" s="62" t="s">
-        <v>824</v>
+      <c r="G44" s="94"/>
+      <c r="H44" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="62" t="s">
+        <v>821</v>
+      </c>
+      <c r="J44" s="58" t="s">
+        <v>822</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -7712,26 +7688,26 @@
       <c r="D45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F45" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="62" t="s">
+      <c r="F45" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="58" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>102</v>
       </c>
@@ -7744,58 +7720,58 @@
       <c r="D46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="F46" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="39" t="s">
+      <c r="F46" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="63" t="s">
+      <c r="J46" s="59" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="51" t="s">
-        <v>833</v>
-      </c>
-      <c r="B47" s="52" t="s">
+      <c r="A47" s="49" t="s">
+        <v>831</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>830</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="64" t="s">
+      <c r="E47" s="23" t="s">
+        <v>828</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="J47" s="62" t="s">
+      <c r="J47" s="58" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="60" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>97</v>
       </c>
@@ -7808,22 +7784,22 @@
       <c r="D48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="39" t="s">
+      <c r="E48" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>836</v>
+      </c>
+      <c r="H48" s="37" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J48" s="62" t="s">
+      <c r="J48" s="58" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7851,28 +7827,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1" s="76"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="3" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E3" s="76"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="76"/>
+      <c r="E4" s="72"/>
     </row>
     <row r="5" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E5" s="76"/>
+      <c r="E5" s="72"/>
     </row>
     <row r="7" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="76"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="9" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="76"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="76"/>
+      <c r="E10" s="72"/>
     </row>
     <row r="11" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="76"/>
+      <c r="E11" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7894,10 +7870,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="78" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7974,10 +7950,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="78" t="s">
         <v>243</v>
       </c>
     </row>
@@ -8006,10 +7982,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="78" t="s">
         <v>244</v>
       </c>
     </row>
@@ -8182,10 +8158,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="78" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8222,15 +8198,15 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="78" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="84">
+      <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
@@ -8238,7 +8214,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="84">
+      <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" t="s">
@@ -8246,7 +8222,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="84">
+      <c r="A38">
         <v>3</v>
       </c>
       <c r="B38" t="s">
@@ -8254,7 +8230,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="84">
+      <c r="A39">
         <v>4</v>
       </c>
       <c r="B39" t="s">
@@ -8262,15 +8238,15 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="78" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="84">
+      <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
@@ -8278,7 +8254,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="84">
+      <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" t="s">
@@ -8286,7 +8262,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="84">
+      <c r="A45">
         <v>3</v>
       </c>
       <c r="B45" t="s">
@@ -8294,7 +8270,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="84">
+      <c r="A46">
         <v>4</v>
       </c>
       <c r="B46" t="s">
@@ -8302,7 +8278,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="84">
+      <c r="A47">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -8310,10 +8286,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="78" t="s">
         <v>248</v>
       </c>
     </row>
@@ -8454,7 +8430,7 @@
         <v>517</v>
       </c>
       <c r="B61" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="4"/>
@@ -8490,7 +8466,7 @@
         <v>520</v>
       </c>
       <c r="B64" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="4"/>
@@ -8526,7 +8502,7 @@
         <v>523</v>
       </c>
       <c r="B67" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="4"/>
@@ -8562,7 +8538,7 @@
         <v>526</v>
       </c>
       <c r="B70" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="4"/>
@@ -8610,7 +8586,7 @@
         <v>530</v>
       </c>
       <c r="B74" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="4"/>
@@ -8666,15 +8642,15 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="85" t="s">
+      <c r="A81" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B81" s="85" t="s">
+      <c r="B81" s="78" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="84">
+      <c r="A82">
         <v>1</v>
       </c>
       <c r="B82" t="s">
@@ -8686,7 +8662,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="84">
+      <c r="A83">
         <v>2</v>
       </c>
       <c r="B83" t="s">
@@ -8698,7 +8674,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="84">
+      <c r="A84">
         <v>3</v>
       </c>
       <c r="B84" t="s">
@@ -8710,7 +8686,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="84">
+      <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" t="s">
@@ -8722,7 +8698,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="84">
+      <c r="A86">
         <v>5</v>
       </c>
       <c r="B86" t="s">
@@ -8734,7 +8710,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="84">
+      <c r="A87">
         <v>6</v>
       </c>
       <c r="B87" t="s">
@@ -8746,7 +8722,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="84">
+      <c r="A88">
         <v>7</v>
       </c>
       <c r="B88" t="s">
@@ -8758,7 +8734,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="84">
+      <c r="A89">
         <v>8</v>
       </c>
       <c r="B89" t="s">
@@ -8770,7 +8746,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="84">
+      <c r="A90">
         <v>9</v>
       </c>
       <c r="B90" t="s">
@@ -8782,7 +8758,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="84">
+      <c r="A91">
         <v>10</v>
       </c>
       <c r="B91" t="s">
@@ -8794,7 +8770,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="84">
+      <c r="A92">
         <v>11</v>
       </c>
       <c r="B92" t="s">
@@ -8806,7 +8782,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="84">
+      <c r="A93">
         <v>12</v>
       </c>
       <c r="B93" t="s">
@@ -8818,7 +8794,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="84">
+      <c r="A94">
         <v>13</v>
       </c>
       <c r="B94" t="s">
@@ -8830,7 +8806,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="84">
+      <c r="A95">
         <v>14</v>
       </c>
       <c r="B95" t="s">
@@ -8842,7 +8818,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="84">
+      <c r="A96">
         <v>15</v>
       </c>
       <c r="B96" t="s">
@@ -8854,7 +8830,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="84">
+      <c r="A97">
         <v>16</v>
       </c>
       <c r="B97" t="s">
@@ -8866,7 +8842,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="84">
+      <c r="A98">
         <v>17</v>
       </c>
       <c r="B98" t="s">
@@ -8878,7 +8854,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="84">
+      <c r="A99">
         <v>18</v>
       </c>
       <c r="B99" t="s">
@@ -8890,7 +8866,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="84">
+      <c r="A100">
         <v>19</v>
       </c>
       <c r="B100" t="s">
@@ -8902,7 +8878,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="84">
+      <c r="A101">
         <v>20</v>
       </c>
       <c r="B101" t="s">
@@ -8914,7 +8890,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="84">
+      <c r="A102">
         <v>21</v>
       </c>
       <c r="B102" t="s">
@@ -8926,7 +8902,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="84">
+      <c r="A103">
         <v>22</v>
       </c>
       <c r="B103" t="s">
@@ -8938,7 +8914,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="84">
+      <c r="A104">
         <v>23</v>
       </c>
       <c r="B104" t="s">
@@ -8950,7 +8926,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="84">
+      <c r="A105">
         <v>24</v>
       </c>
       <c r="B105" t="s">
@@ -8962,7 +8938,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="84">
+      <c r="A106">
         <v>25</v>
       </c>
       <c r="B106" t="s">
@@ -8974,7 +8950,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="84">
+      <c r="A107">
         <v>26</v>
       </c>
       <c r="B107" t="s">
@@ -8986,7 +8962,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="84">
+      <c r="A108">
         <v>27</v>
       </c>
       <c r="B108" t="s">
@@ -8998,7 +8974,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="84">
+      <c r="A109">
         <v>28</v>
       </c>
       <c r="B109" t="s">
@@ -9010,7 +8986,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="84">
+      <c r="A110">
         <v>29</v>
       </c>
       <c r="B110" t="s">
@@ -9022,7 +8998,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="84">
+      <c r="A111">
         <v>30</v>
       </c>
       <c r="B111" t="s">
@@ -9034,7 +9010,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="84">
+      <c r="A112">
         <v>31</v>
       </c>
       <c r="B112" t="s">
@@ -9046,7 +9022,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="84">
+      <c r="A113">
         <v>32</v>
       </c>
       <c r="B113" t="s">
@@ -9058,7 +9034,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="84">
+      <c r="A114">
         <v>33</v>
       </c>
       <c r="B114" t="s">
@@ -9070,7 +9046,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="84">
+      <c r="A115">
         <v>34</v>
       </c>
       <c r="B115" t="s">
@@ -9082,7 +9058,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="84">
+      <c r="A116">
         <v>35</v>
       </c>
       <c r="B116" t="s">
@@ -9094,7 +9070,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="84">
+      <c r="A117">
         <v>36</v>
       </c>
       <c r="B117" t="s">
@@ -9106,7 +9082,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="84">
+      <c r="A118">
         <v>37</v>
       </c>
       <c r="B118" t="s">
@@ -9118,7 +9094,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="84">
+      <c r="A119">
         <v>38</v>
       </c>
       <c r="B119" t="s">
@@ -9130,7 +9106,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="84">
+      <c r="A120">
         <v>39</v>
       </c>
       <c r="B120" t="s">
@@ -9142,7 +9118,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="84">
+      <c r="A121">
         <v>40</v>
       </c>
       <c r="B121" t="s">
@@ -9154,7 +9130,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="84">
+      <c r="A122">
         <v>41</v>
       </c>
       <c r="B122" t="s">
@@ -9166,7 +9142,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="84">
+      <c r="A123">
         <v>42</v>
       </c>
       <c r="B123" t="s">
@@ -9178,7 +9154,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="84">
+      <c r="A124">
         <v>43</v>
       </c>
       <c r="B124" t="s">
@@ -9190,7 +9166,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="84">
+      <c r="A125">
         <v>44</v>
       </c>
       <c r="B125" t="s">
@@ -9202,7 +9178,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="84">
+      <c r="A126">
         <v>45</v>
       </c>
       <c r="B126" t="s">
@@ -9214,7 +9190,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="84">
+      <c r="A127">
         <v>46</v>
       </c>
       <c r="B127" t="s">
@@ -9226,7 +9202,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="84">
+      <c r="A128">
         <v>47</v>
       </c>
       <c r="B128" t="s">
@@ -9238,7 +9214,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="84">
+      <c r="A129">
         <v>48</v>
       </c>
       <c r="B129" t="s">
@@ -9250,7 +9226,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="84">
+      <c r="A130">
         <v>49</v>
       </c>
       <c r="B130" t="s">
@@ -9262,7 +9238,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="84">
+      <c r="A131">
         <v>50</v>
       </c>
       <c r="B131" t="s">
@@ -9274,7 +9250,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="84">
+      <c r="A132">
         <v>51</v>
       </c>
       <c r="B132" t="s">
@@ -9286,7 +9262,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="84">
+      <c r="A133">
         <v>52</v>
       </c>
       <c r="B133" t="s">
@@ -9298,7 +9274,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="84">
+      <c r="A134">
         <v>53</v>
       </c>
       <c r="B134" t="s">
@@ -9310,7 +9286,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="84">
+      <c r="A135">
         <v>54</v>
       </c>
       <c r="B135" t="s">
@@ -9322,7 +9298,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="84">
+      <c r="A136">
         <v>55</v>
       </c>
       <c r="B136" t="s">
@@ -9334,7 +9310,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="84">
+      <c r="A137">
         <v>56</v>
       </c>
       <c r="B137" t="s">
@@ -9346,7 +9322,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="84">
+      <c r="A138">
         <v>57</v>
       </c>
       <c r="B138" t="s">
@@ -9358,7 +9334,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="84">
+      <c r="A139">
         <v>58</v>
       </c>
       <c r="B139" t="s">
@@ -9370,7 +9346,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="84">
+      <c r="A140">
         <v>59</v>
       </c>
       <c r="B140" t="s">
@@ -9382,7 +9358,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="84">
+      <c r="A141">
         <v>60</v>
       </c>
       <c r="B141" t="s">
@@ -9394,7 +9370,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="84">
+      <c r="A142">
         <v>61</v>
       </c>
       <c r="B142" t="s">
@@ -9406,7 +9382,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="84">
+      <c r="A143">
         <v>62</v>
       </c>
       <c r="B143" t="s">
@@ -9442,15 +9418,15 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="85" t="s">
+      <c r="A147" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B147" s="85" t="s">
+      <c r="B147" s="78" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="84">
+      <c r="A148">
         <v>1</v>
       </c>
       <c r="B148" t="s">
@@ -9458,7 +9434,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="84">
+      <c r="A149">
         <v>2</v>
       </c>
       <c r="B149" t="s">
@@ -9466,7 +9442,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="84">
+      <c r="A150">
         <v>3</v>
       </c>
       <c r="B150" t="s">
@@ -9474,7 +9450,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="84">
+      <c r="A151">
         <v>4</v>
       </c>
       <c r="B151" t="s">
@@ -9482,7 +9458,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="84">
+      <c r="A152">
         <v>5</v>
       </c>
       <c r="B152" t="s">
@@ -9490,7 +9466,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="84">
+      <c r="A153">
         <v>6</v>
       </c>
       <c r="B153" t="s">
@@ -9498,7 +9474,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="84">
+      <c r="A154">
         <v>7</v>
       </c>
       <c r="B154" t="s">
@@ -9506,7 +9482,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="84">
+      <c r="A155">
         <v>8</v>
       </c>
       <c r="B155" t="s">
@@ -9514,7 +9490,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="84">
+      <c r="A156">
         <v>9</v>
       </c>
       <c r="B156" t="s">
@@ -9522,7 +9498,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="84">
+      <c r="A157">
         <v>10</v>
       </c>
       <c r="B157" t="s">
@@ -9530,7 +9506,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="84">
+      <c r="A158">
         <v>11</v>
       </c>
       <c r="B158" t="s">
@@ -9538,7 +9514,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="84">
+      <c r="A159">
         <v>12</v>
       </c>
       <c r="B159" t="s">
@@ -9546,7 +9522,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="84">
+      <c r="A160">
         <v>13</v>
       </c>
       <c r="B160" t="s">
@@ -9554,7 +9530,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="84">
+      <c r="A161">
         <v>14</v>
       </c>
       <c r="B161" t="s">
@@ -9562,7 +9538,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="84">
+      <c r="A162">
         <v>15</v>
       </c>
       <c r="B162" t="s">
@@ -9570,7 +9546,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="84">
+      <c r="A163">
         <v>16</v>
       </c>
       <c r="B163" t="s">
@@ -9578,7 +9554,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="84">
+      <c r="A164">
         <v>17</v>
       </c>
       <c r="B164" t="s">
@@ -9586,7 +9562,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="84">
+      <c r="A165">
         <v>18</v>
       </c>
       <c r="B165" t="s">
@@ -9594,7 +9570,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="84">
+      <c r="A166">
         <v>19</v>
       </c>
       <c r="B166" t="s">
@@ -9602,7 +9578,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="84">
+      <c r="A167">
         <v>20</v>
       </c>
       <c r="B167" t="s">
@@ -9610,7 +9586,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="84">
+      <c r="A168">
         <v>21</v>
       </c>
       <c r="B168" t="s">
@@ -9618,7 +9594,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="84">
+      <c r="A169">
         <v>22</v>
       </c>
       <c r="B169" t="s">
@@ -9626,7 +9602,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="84">
+      <c r="A170">
         <v>23</v>
       </c>
       <c r="B170" t="s">
@@ -9634,7 +9610,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="84">
+      <c r="A171">
         <v>24</v>
       </c>
       <c r="B171" t="s">
@@ -9642,7 +9618,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="84">
+      <c r="A172">
         <v>25</v>
       </c>
       <c r="B172" t="s">
@@ -9650,7 +9626,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="84">
+      <c r="A173">
         <v>26</v>
       </c>
       <c r="B173" t="s">
@@ -9658,7 +9634,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="84">
+      <c r="A174">
         <v>27</v>
       </c>
       <c r="B174" t="s">
@@ -9666,7 +9642,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="84">
+      <c r="A175">
         <v>28</v>
       </c>
       <c r="B175" t="s">
@@ -9674,7 +9650,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="84">
+      <c r="A176">
         <v>29</v>
       </c>
       <c r="B176" t="s">
@@ -9682,7 +9658,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="84">
+      <c r="A177">
         <v>30</v>
       </c>
       <c r="B177" t="s">
@@ -9690,7 +9666,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="84">
+      <c r="A178">
         <v>31</v>
       </c>
       <c r="B178" t="s">
@@ -9698,7 +9674,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="84">
+      <c r="A179">
         <v>32</v>
       </c>
       <c r="B179" t="s">
@@ -9706,7 +9682,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="84">
+      <c r="A180">
         <v>33</v>
       </c>
       <c r="B180" t="s">
@@ -9714,7 +9690,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="84">
+      <c r="A181">
         <v>34</v>
       </c>
       <c r="B181" t="s">
@@ -9722,7 +9698,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="84">
+      <c r="A182">
         <v>35</v>
       </c>
       <c r="B182" t="s">
@@ -9730,7 +9706,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="84">
+      <c r="A183">
         <v>36</v>
       </c>
       <c r="B183" t="s">
@@ -9738,15 +9714,15 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="85" t="s">
+      <c r="A186" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B186" s="85" t="s">
+      <c r="B186" s="78" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="84">
+      <c r="A187">
         <v>1</v>
       </c>
       <c r="B187" t="s">
@@ -9754,7 +9730,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="84">
+      <c r="A188">
         <v>2</v>
       </c>
       <c r="B188" t="s">
@@ -9762,7 +9738,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="84">
+      <c r="A189">
         <v>3</v>
       </c>
       <c r="B189" t="s">
@@ -9770,7 +9746,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="84">
+      <c r="A190">
         <v>4</v>
       </c>
       <c r="B190" t="s">
@@ -9778,7 +9754,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="84">
+      <c r="A191">
         <v>5</v>
       </c>
       <c r="B191" t="s">
@@ -9786,7 +9762,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="84">
+      <c r="A192">
         <v>6</v>
       </c>
       <c r="B192" t="s">
@@ -9794,7 +9770,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="84">
+      <c r="A193">
         <v>7</v>
       </c>
       <c r="B193" t="s">
@@ -9802,7 +9778,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="84">
+      <c r="A194">
         <v>8</v>
       </c>
       <c r="B194" t="s">
@@ -9810,7 +9786,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="84">
+      <c r="A195">
         <v>9</v>
       </c>
       <c r="B195" t="s">
@@ -9818,18 +9794,18 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="85" t="s">
+      <c r="A198" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B198" s="85" t="s">
+      <c r="B198" s="78" t="s">
         <v>537</v>
       </c>
-      <c r="C198" s="85" t="s">
+      <c r="C198" s="78" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="84">
+      <c r="A199">
         <v>1</v>
       </c>
       <c r="B199" t="s">
@@ -9840,7 +9816,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="84">
+      <c r="A200">
         <v>2</v>
       </c>
       <c r="B200" t="s">
@@ -9851,7 +9827,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="84">
+      <c r="A201">
         <v>3</v>
       </c>
       <c r="B201" t="s">
@@ -9862,7 +9838,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="84">
+      <c r="A202">
         <v>4</v>
       </c>
       <c r="B202" t="s">
@@ -9873,7 +9849,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="84">
+      <c r="A203">
         <v>5</v>
       </c>
       <c r="B203" t="s">
@@ -9884,7 +9860,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="84">
+      <c r="A204">
         <v>6</v>
       </c>
       <c r="B204" t="s">
@@ -9895,7 +9871,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="84">
+      <c r="A205">
         <v>7</v>
       </c>
       <c r="B205" t="s">
@@ -9906,7 +9882,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="84">
+      <c r="A206">
         <v>8</v>
       </c>
       <c r="B206" t="s">
@@ -9917,7 +9893,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="84">
+      <c r="A207">
         <v>9</v>
       </c>
       <c r="B207" t="s">
@@ -9928,15 +9904,15 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="85" t="s">
+      <c r="A210" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B210" s="85" t="s">
+      <c r="B210" s="78" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="84">
+      <c r="A211">
         <v>1</v>
       </c>
       <c r="B211" t="s">
@@ -9944,7 +9920,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="84">
+      <c r="A212">
         <v>2</v>
       </c>
       <c r="B212" t="s">
@@ -9952,7 +9928,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="84">
+      <c r="A213">
         <v>3</v>
       </c>
       <c r="B213" t="s">
@@ -9960,15 +9936,15 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="85" t="s">
+      <c r="A216" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B216" s="85" t="s">
+      <c r="B216" s="78" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="84">
+      <c r="A217">
         <v>1</v>
       </c>
       <c r="B217" t="s">
@@ -9976,7 +9952,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="84">
+      <c r="A218">
         <v>2</v>
       </c>
       <c r="B218" t="s">
@@ -9984,7 +9960,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="84">
+      <c r="A219">
         <v>3</v>
       </c>
       <c r="B219" t="s">
@@ -9992,7 +9968,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="84">
+      <c r="A220">
         <v>4</v>
       </c>
       <c r="B220" t="s">
@@ -10000,7 +9976,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="84">
+      <c r="A221">
         <v>5</v>
       </c>
       <c r="B221" t="s">
@@ -10008,7 +9984,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="84">
+      <c r="A222">
         <v>6</v>
       </c>
       <c r="B222" t="s">
@@ -10016,7 +9992,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="84">
+      <c r="A223">
         <v>7</v>
       </c>
       <c r="B223" t="s">
@@ -10024,7 +10000,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="84">
+      <c r="A224">
         <v>8</v>
       </c>
       <c r="B224" t="s">
@@ -10032,7 +10008,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="84">
+      <c r="A225">
         <v>9</v>
       </c>
       <c r="B225" t="s">
@@ -10040,7 +10016,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="84">
+      <c r="A226">
         <v>10</v>
       </c>
       <c r="B226" t="s">
@@ -10048,7 +10024,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="84">
+      <c r="A227">
         <v>11</v>
       </c>
       <c r="B227" t="s">
@@ -10056,7 +10032,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="84">
+      <c r="A228">
         <v>12</v>
       </c>
       <c r="B228" t="s">
@@ -10064,7 +10040,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="84">
+      <c r="A229">
         <v>13</v>
       </c>
       <c r="B229" t="s">
@@ -10072,7 +10048,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="84">
+      <c r="A230">
         <v>14</v>
       </c>
       <c r="B230" t="s">
@@ -10080,7 +10056,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="84">
+      <c r="A231">
         <v>15</v>
       </c>
       <c r="B231" t="s">
@@ -10088,7 +10064,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="84">
+      <c r="A232">
         <v>16</v>
       </c>
       <c r="B232" t="s">
@@ -10096,7 +10072,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="84">
+      <c r="A233">
         <v>17</v>
       </c>
       <c r="B233" t="s">
@@ -10104,7 +10080,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="84">
+      <c r="A234">
         <v>18</v>
       </c>
       <c r="B234" t="s">
@@ -10112,7 +10088,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="84">
+      <c r="A235">
         <v>19</v>
       </c>
       <c r="B235" t="s">
@@ -10120,7 +10096,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="84">
+      <c r="A236">
         <v>20</v>
       </c>
       <c r="B236" t="s">
@@ -10128,7 +10104,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="84">
+      <c r="A237">
         <v>21</v>
       </c>
       <c r="B237" t="s">
@@ -10136,7 +10112,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="84">
+      <c r="A238">
         <v>22</v>
       </c>
       <c r="B238" t="s">
@@ -10144,7 +10120,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="84">
+      <c r="A239">
         <v>23</v>
       </c>
       <c r="B239" t="s">
@@ -10152,7 +10128,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="84">
+      <c r="A240">
         <v>24</v>
       </c>
       <c r="B240" t="s">
@@ -10160,7 +10136,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="84">
+      <c r="A241">
         <v>25</v>
       </c>
       <c r="B241" t="s">
@@ -10168,7 +10144,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="84">
+      <c r="A242">
         <v>26</v>
       </c>
       <c r="B242" t="s">
@@ -10176,7 +10152,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="84">
+      <c r="A243">
         <v>27</v>
       </c>
       <c r="B243" t="s">
@@ -10184,7 +10160,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="84">
+      <c r="A244">
         <v>28</v>
       </c>
       <c r="B244" t="s">
@@ -10192,7 +10168,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="84">
+      <c r="A245">
         <v>29</v>
       </c>
       <c r="B245" t="s">
@@ -10200,7 +10176,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="84">
+      <c r="A246">
         <v>30</v>
       </c>
       <c r="B246" t="s">
@@ -10208,7 +10184,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="84">
+      <c r="A247">
         <v>31</v>
       </c>
       <c r="B247" t="s">
@@ -10216,7 +10192,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="84">
+      <c r="A248">
         <v>32</v>
       </c>
       <c r="B248" t="s">
@@ -10224,7 +10200,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="84">
+      <c r="A249">
         <v>33</v>
       </c>
       <c r="B249" t="s">
@@ -10232,7 +10208,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="84">
+      <c r="A250">
         <v>34</v>
       </c>
       <c r="B250" t="s">
@@ -10240,7 +10216,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="84">
+      <c r="A251">
         <v>35</v>
       </c>
       <c r="B251" t="s">
@@ -10248,7 +10224,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="84">
+      <c r="A252">
         <v>36</v>
       </c>
       <c r="B252" t="s">
@@ -10256,7 +10232,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="84">
+      <c r="A253">
         <v>37</v>
       </c>
       <c r="B253" t="s">
@@ -10264,7 +10240,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="84">
+      <c r="A254">
         <v>38</v>
       </c>
       <c r="B254" t="s">
@@ -10272,7 +10248,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="84">
+      <c r="A255">
         <v>39</v>
       </c>
       <c r="B255" t="s">
@@ -10280,7 +10256,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="84">
+      <c r="A256">
         <v>40</v>
       </c>
       <c r="B256" t="s">
@@ -10288,7 +10264,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="84">
+      <c r="A257">
         <v>41</v>
       </c>
       <c r="B257" t="s">
@@ -10296,7 +10272,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="84">
+      <c r="A258">
         <v>42</v>
       </c>
       <c r="B258" t="s">
@@ -10304,7 +10280,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="84">
+      <c r="A259">
         <v>43</v>
       </c>
       <c r="B259" t="s">
@@ -10312,7 +10288,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="84">
+      <c r="A260">
         <v>44</v>
       </c>
       <c r="B260" t="s">
@@ -10320,7 +10296,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="84">
+      <c r="A261">
         <v>45</v>
       </c>
       <c r="B261" t="s">
@@ -10328,7 +10304,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="84">
+      <c r="A262">
         <v>46</v>
       </c>
       <c r="B262" t="s">
@@ -10336,7 +10312,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="84">
+      <c r="A263">
         <v>47</v>
       </c>
       <c r="B263" t="s">
@@ -10344,7 +10320,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="84">
+      <c r="A264">
         <v>48</v>
       </c>
       <c r="B264" t="s">
@@ -10352,7 +10328,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="84">
+      <c r="A265">
         <v>49</v>
       </c>
       <c r="B265" t="s">
@@ -10360,7 +10336,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="84">
+      <c r="A266">
         <v>50</v>
       </c>
       <c r="B266" t="s">
@@ -10368,7 +10344,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="84">
+      <c r="A267">
         <v>51</v>
       </c>
       <c r="B267" t="s">
@@ -10376,7 +10352,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="84">
+      <c r="A268">
         <v>52</v>
       </c>
       <c r="B268" t="s">
@@ -10384,7 +10360,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="84">
+      <c r="A269">
         <v>53</v>
       </c>
       <c r="B269" t="s">
@@ -10392,7 +10368,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="84">
+      <c r="A270">
         <v>54</v>
       </c>
       <c r="B270" t="s">
@@ -10400,7 +10376,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="84">
+      <c r="A271">
         <v>55</v>
       </c>
       <c r="B271" t="s">
@@ -10408,7 +10384,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="84">
+      <c r="A272">
         <v>56</v>
       </c>
       <c r="B272" t="s">
@@ -10416,7 +10392,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="84">
+      <c r="A273">
         <v>57</v>
       </c>
       <c r="B273" t="s">
@@ -10424,7 +10400,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="84">
+      <c r="A274">
         <v>58</v>
       </c>
       <c r="B274" t="s">
@@ -10432,7 +10408,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="84">
+      <c r="A275">
         <v>59</v>
       </c>
       <c r="B275" t="s">
@@ -10440,7 +10416,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="84">
+      <c r="A276">
         <v>60</v>
       </c>
       <c r="B276" t="s">
@@ -10448,7 +10424,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="84">
+      <c r="A277">
         <v>61</v>
       </c>
       <c r="B277" t="s">
@@ -10456,7 +10432,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="84">
+      <c r="A278">
         <v>62</v>
       </c>
       <c r="B278" t="s">
@@ -10464,7 +10440,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="84">
+      <c r="A279">
         <v>63</v>
       </c>
       <c r="B279" t="s">
@@ -10472,7 +10448,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="84">
+      <c r="A280">
         <v>64</v>
       </c>
       <c r="B280" t="s">
@@ -10480,7 +10456,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="84">
+      <c r="A281">
         <v>65</v>
       </c>
       <c r="B281" t="s">
@@ -10488,7 +10464,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="84">
+      <c r="A282">
         <v>66</v>
       </c>
       <c r="B282" t="s">
@@ -10496,7 +10472,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="84">
+      <c r="A283">
         <v>67</v>
       </c>
       <c r="B283" t="s">
@@ -10504,7 +10480,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="84">
+      <c r="A284">
         <v>68</v>
       </c>
       <c r="B284" t="s">
@@ -10512,7 +10488,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="84">
+      <c r="A285">
         <v>69</v>
       </c>
       <c r="B285" t="s">
@@ -10520,7 +10496,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="84">
+      <c r="A286">
         <v>70</v>
       </c>
       <c r="B286" t="s">
@@ -10528,7 +10504,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="84">
+      <c r="A287">
         <v>71</v>
       </c>
       <c r="B287" t="s">
@@ -10536,7 +10512,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="84">
+      <c r="A288">
         <v>72</v>
       </c>
       <c r="B288" t="s">
@@ -10544,7 +10520,7 @@
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="84">
+      <c r="A289">
         <v>73</v>
       </c>
       <c r="B289" t="s">
@@ -10552,7 +10528,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="84">
+      <c r="A290">
         <v>74</v>
       </c>
       <c r="B290" t="s">
@@ -10560,7 +10536,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="84">
+      <c r="A291">
         <v>75</v>
       </c>
       <c r="B291" t="s">
@@ -10568,7 +10544,7 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="84">
+      <c r="A292">
         <v>76</v>
       </c>
       <c r="B292" t="s">
@@ -10576,7 +10552,7 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="84">
+      <c r="A293">
         <v>77</v>
       </c>
       <c r="B293" t="s">
@@ -10584,7 +10560,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="84">
+      <c r="A294">
         <v>78</v>
       </c>
       <c r="B294" t="s">
@@ -10592,1212 +10568,1212 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="85" t="s">
+      <c r="A300" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="B300" s="85" t="s">
-        <v>703</v>
+      <c r="B300" s="78" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B301" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" ref="C301:C364" si="6">""""&amp;A301&amp;""""&amp;" : "&amp;""""&amp;B301&amp;""""&amp;","</f>
         <v>"AL" : "Allen",</v>
       </c>
-      <c r="D301" s="89"/>
+      <c r="D301" s="82"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B302" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="6"/>
         <v>"AN" : "Anderson",</v>
       </c>
-      <c r="D302" s="89"/>
+      <c r="D302" s="82"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B303" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="6"/>
         <v>"AT" : "Atchison",</v>
       </c>
-      <c r="D303" s="89"/>
+      <c r="D303" s="82"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B304" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="6"/>
         <v>"BA" : "Barber",</v>
       </c>
-      <c r="D304" s="89"/>
+      <c r="D304" s="82"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B305" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="6"/>
         <v>"BT" : "Barton",</v>
       </c>
-      <c r="D305" s="89"/>
+      <c r="D305" s="82"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B306" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="6"/>
         <v>"BB" : "Bourbon",</v>
       </c>
-      <c r="D306" s="89"/>
+      <c r="D306" s="82"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B307" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="6"/>
         <v>"BR" : "Brown",</v>
       </c>
-      <c r="D307" s="89"/>
+      <c r="D307" s="82"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B308" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="6"/>
         <v>"BU" : "Butler",</v>
       </c>
-      <c r="D308" s="89"/>
+      <c r="D308" s="82"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B309" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="6"/>
         <v>"CS" : "Chase",</v>
       </c>
-      <c r="D309" s="89"/>
+      <c r="D309" s="82"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B310" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="6"/>
         <v>"CQ" : "Chautauqua",</v>
       </c>
-      <c r="D310" s="89"/>
+      <c r="D310" s="82"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B311" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="6"/>
         <v>"CK" : "Cherokee",</v>
       </c>
-      <c r="D311" s="89"/>
+      <c r="D311" s="82"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B312" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="6"/>
         <v>"CN" : "Cheyenne",</v>
       </c>
-      <c r="D312" s="89"/>
+      <c r="D312" s="82"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B313" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="6"/>
         <v>"CA" : "Clark",</v>
       </c>
-      <c r="D313" s="89"/>
+      <c r="D313" s="82"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B314" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="6"/>
         <v>"CY" : "Clay",</v>
       </c>
-      <c r="D314" s="89"/>
+      <c r="D314" s="82"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B315" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="6"/>
         <v>"CD" : "Cloud",</v>
       </c>
-      <c r="D315" s="89"/>
+      <c r="D315" s="82"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B316" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="6"/>
         <v>"CF" : "Coffey",</v>
       </c>
-      <c r="D316" s="89"/>
+      <c r="D316" s="82"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B317" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="6"/>
         <v>"CM" : "Comanche",</v>
       </c>
-      <c r="D317" s="89"/>
+      <c r="D317" s="82"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B318" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="6"/>
         <v>"CL" : "Cowley",</v>
       </c>
-      <c r="D318" s="89"/>
+      <c r="D318" s="82"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B319" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="6"/>
         <v>"CR" : "Crawford",</v>
       </c>
-      <c r="D319" s="89"/>
+      <c r="D319" s="82"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B320" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="6"/>
         <v>"DC" : "Decatur",</v>
       </c>
-      <c r="D320" s="89"/>
+      <c r="D320" s="82"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B321" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C321" t="str">
         <f t="shared" si="6"/>
         <v>"DK" : "Dickinson",</v>
       </c>
-      <c r="D321" s="89"/>
+      <c r="D321" s="82"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B322" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C322" t="str">
         <f t="shared" si="6"/>
         <v>"DP" : "Doniphan",</v>
       </c>
-      <c r="D322" s="89"/>
+      <c r="D322" s="82"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B323" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C323" t="str">
         <f t="shared" si="6"/>
         <v>"DG" : "Douglas",</v>
       </c>
-      <c r="D323" s="89"/>
+      <c r="D323" s="82"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B324" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="6"/>
         <v>"ED" : "Edwards",</v>
       </c>
-      <c r="D324" s="89"/>
+      <c r="D324" s="82"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B325" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="6"/>
         <v>"EK" : "Elk",</v>
       </c>
-      <c r="D325" s="89"/>
+      <c r="D325" s="82"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B326" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="6"/>
         <v>"EL" : "Ellis",</v>
       </c>
-      <c r="D326" s="89"/>
+      <c r="D326" s="82"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B327" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="6"/>
         <v>"EW" : "Ellsworth",</v>
       </c>
-      <c r="D327" s="89"/>
+      <c r="D327" s="82"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B328" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" si="6"/>
         <v>"FI" : "Finney",</v>
       </c>
-      <c r="D328" s="89"/>
+      <c r="D328" s="82"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>509</v>
       </c>
       <c r="B329" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="6"/>
         <v>"FO" : "Ford",</v>
       </c>
-      <c r="D329" s="89"/>
+      <c r="D329" s="82"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B330" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="6"/>
         <v>"FR" : "Franklin",</v>
       </c>
-      <c r="D330" s="89"/>
+      <c r="D330" s="82"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B331" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="6"/>
         <v>"GE" : "Geary",</v>
       </c>
-      <c r="D331" s="89"/>
+      <c r="D331" s="82"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B332" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C332" t="str">
         <f t="shared" si="6"/>
         <v>"GO" : "Gove",</v>
       </c>
-      <c r="D332" s="89"/>
+      <c r="D332" s="82"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B333" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C333" t="str">
         <f t="shared" si="6"/>
         <v>"GH" : "Graham",</v>
       </c>
-      <c r="D333" s="89"/>
+      <c r="D333" s="82"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B334" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="6"/>
         <v>"GT" : "Grant",</v>
       </c>
-      <c r="D334" s="89"/>
+      <c r="D334" s="82"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>512</v>
       </c>
       <c r="B335" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="6"/>
         <v>"GY" : "Gray",</v>
       </c>
-      <c r="D335" s="89"/>
+      <c r="D335" s="82"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B336" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="6"/>
         <v>"GL" : "Greeley",</v>
       </c>
-      <c r="D336" s="89"/>
+      <c r="D336" s="82"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B337" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="6"/>
         <v>"GW" : "Greenwood",</v>
       </c>
-      <c r="D337" s="89"/>
+      <c r="D337" s="82"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B338" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="6"/>
         <v>"HM" : "Hamilton",</v>
       </c>
-      <c r="D338" s="89"/>
+      <c r="D338" s="82"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B339" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="6"/>
         <v>"HP" : "Harper",</v>
       </c>
-      <c r="D339" s="89"/>
+      <c r="D339" s="82"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B340" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C340" t="str">
         <f t="shared" si="6"/>
         <v>"HV" : "Harvey",</v>
       </c>
-      <c r="D340" s="89"/>
+      <c r="D340" s="82"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B341" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C341" t="str">
         <f t="shared" si="6"/>
         <v>"HS" : "Haskell",</v>
       </c>
-      <c r="D341" s="89"/>
+      <c r="D341" s="82"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B342" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="6"/>
         <v>"HG" : "Hodgeman",</v>
       </c>
-      <c r="D342" s="89"/>
+      <c r="D342" s="82"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B343" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="6"/>
         <v>"JA" : "Jackson",</v>
       </c>
-      <c r="D343" s="89"/>
+      <c r="D343" s="82"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B344" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="6"/>
         <v>"JF" : "Jefferson",</v>
       </c>
-      <c r="D344" s="89"/>
+      <c r="D344" s="82"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B345" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="6"/>
         <v>"JW" : "Jewell",</v>
       </c>
-      <c r="D345" s="89"/>
+      <c r="D345" s="82"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B346" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="6"/>
         <v>"JO" : "Johnson",</v>
       </c>
-      <c r="D346" s="89"/>
+      <c r="D346" s="82"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>519</v>
       </c>
       <c r="B347" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="6"/>
         <v>"KE" : "Kearny",</v>
       </c>
-      <c r="D347" s="89"/>
+      <c r="D347" s="82"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B348" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="6"/>
         <v>"KM" : "Kingman",</v>
       </c>
-      <c r="D348" s="89"/>
+      <c r="D348" s="82"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B349" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="6"/>
         <v>"KW" : "Kiowa",</v>
       </c>
-      <c r="D349" s="89"/>
+      <c r="D349" s="82"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B350" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="6"/>
         <v>"LB" : "Labette",</v>
       </c>
-      <c r="D350" s="89"/>
+      <c r="D350" s="82"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B351" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="6"/>
         <v>"LE" : "Lane",</v>
       </c>
-      <c r="D351" s="89"/>
+      <c r="D351" s="82"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B352" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="6"/>
         <v>"LV" : "Leavenworth",</v>
       </c>
-      <c r="D352" s="89"/>
+      <c r="D352" s="82"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>522</v>
       </c>
       <c r="B353" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C353" t="str">
         <f t="shared" si="6"/>
         <v>"LC" : "Lincoln",</v>
       </c>
-      <c r="D353" s="89"/>
+      <c r="D353" s="82"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B354" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="6"/>
         <v>"LN" : "Linn",</v>
       </c>
-      <c r="D354" s="89"/>
+      <c r="D354" s="82"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>523</v>
       </c>
       <c r="B355" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C355" t="str">
         <f t="shared" si="6"/>
         <v>"LG" : "Logan",</v>
       </c>
-      <c r="D355" s="89"/>
+      <c r="D355" s="82"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B356" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C356" t="str">
         <f t="shared" si="6"/>
         <v>"LY" : "Lyon",</v>
       </c>
-      <c r="D356" s="89"/>
+      <c r="D356" s="82"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B357" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C357" t="str">
         <f t="shared" si="6"/>
         <v>"MN" : "Marion",</v>
       </c>
-      <c r="D357" s="89"/>
+      <c r="D357" s="82"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B358" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C358" t="str">
         <f t="shared" si="6"/>
         <v>"MS" : "Marshall",</v>
       </c>
-      <c r="D358" s="89"/>
+      <c r="D358" s="82"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B359" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C359" t="str">
         <f t="shared" si="6"/>
         <v>"MP" : "McPherson",</v>
       </c>
-      <c r="D359" s="89"/>
+      <c r="D359" s="82"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B360" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C360" t="str">
         <f t="shared" si="6"/>
         <v>"ME" : "Meade",</v>
       </c>
-      <c r="D360" s="89"/>
+      <c r="D360" s="82"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B361" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C361" t="str">
         <f t="shared" si="6"/>
         <v>"MI" : "Miami",</v>
       </c>
-      <c r="D361" s="89"/>
+      <c r="D361" s="82"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B362" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C362" t="str">
         <f t="shared" si="6"/>
         <v>"MC" : "Mitchell",</v>
       </c>
-      <c r="D362" s="89"/>
+      <c r="D362" s="82"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B363" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C363" t="str">
         <f t="shared" si="6"/>
         <v>"MG" : "Montgomery",</v>
       </c>
-      <c r="D363" s="89"/>
+      <c r="D363" s="82"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>530</v>
       </c>
       <c r="B364" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C364" t="str">
         <f t="shared" si="6"/>
         <v>"MR" : "Morris",</v>
       </c>
-      <c r="D364" s="89"/>
+      <c r="D364" s="82"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B365" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C365" t="str">
         <f t="shared" ref="C365:C405" si="7">""""&amp;A365&amp;""""&amp;" : "&amp;""""&amp;B365&amp;""""&amp;","</f>
         <v>"MT" : "Morton",</v>
       </c>
-      <c r="D365" s="89"/>
+      <c r="D365" s="82"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B366" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C366" t="str">
         <f t="shared" si="7"/>
         <v>"NM" : "Nemaha",</v>
       </c>
-      <c r="D366" s="89"/>
+      <c r="D366" s="82"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B367" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C367" t="str">
         <f t="shared" si="7"/>
         <v>"NO" : "Neosho",</v>
       </c>
-      <c r="D367" s="89"/>
+      <c r="D367" s="82"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B368" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C368" t="str">
         <f t="shared" si="7"/>
         <v>"NS" : "Ness",</v>
       </c>
-      <c r="D368" s="89"/>
+      <c r="D368" s="82"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>533</v>
       </c>
       <c r="B369" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C369" t="str">
         <f t="shared" si="7"/>
         <v>"NT" : "Norton",</v>
       </c>
-      <c r="D369" s="89"/>
+      <c r="D369" s="82"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B370" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C370" t="str">
         <f t="shared" si="7"/>
         <v>"OS" : "Osage",</v>
       </c>
-      <c r="D370" s="89"/>
+      <c r="D370" s="82"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B371" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C371" t="str">
         <f t="shared" si="7"/>
         <v>"OB" : "Osborne",</v>
       </c>
-      <c r="D371" s="89"/>
+      <c r="D371" s="82"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B372" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C372" t="str">
         <f t="shared" si="7"/>
         <v>"OT" : "Ottawa",</v>
       </c>
-      <c r="D372" s="89"/>
+      <c r="D372" s="82"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B373" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C373" t="str">
         <f t="shared" si="7"/>
         <v>"PN" : "Pawnee",</v>
       </c>
-      <c r="D373" s="89"/>
+      <c r="D373" s="82"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B374" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C374" t="str">
         <f t="shared" si="7"/>
         <v>"PL" : "Phillips",</v>
       </c>
-      <c r="D374" s="89"/>
+      <c r="D374" s="82"/>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B375" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C375" t="str">
         <f t="shared" si="7"/>
         <v>"PT" : "Pottawatomie",</v>
       </c>
-      <c r="D375" s="89"/>
+      <c r="D375" s="82"/>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B376" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C376" t="str">
         <f t="shared" si="7"/>
         <v>"PR" : "Pratt",</v>
       </c>
-      <c r="D376" s="89"/>
+      <c r="D376" s="82"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B377" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C377" t="str">
         <f t="shared" si="7"/>
         <v>"RA" : "Rawlins",</v>
       </c>
-      <c r="D377" s="89"/>
+      <c r="D377" s="82"/>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B378" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C378" t="str">
         <f t="shared" si="7"/>
         <v>"RN" : "Reno",</v>
       </c>
-      <c r="D378" s="89"/>
+      <c r="D378" s="82"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B379" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C379" t="str">
         <f t="shared" si="7"/>
         <v>"RP" : "Republic",</v>
       </c>
-      <c r="D379" s="89"/>
+      <c r="D379" s="82"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B380" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C380" t="str">
         <f t="shared" si="7"/>
         <v>"RC" : "Rice",</v>
       </c>
-      <c r="D380" s="89"/>
+      <c r="D380" s="82"/>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B381" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C381" t="str">
         <f t="shared" si="7"/>
         <v>"RL" : "Riley",</v>
       </c>
-      <c r="D381" s="89"/>
+      <c r="D381" s="82"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B382" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C382" t="str">
         <f t="shared" si="7"/>
         <v>"RO" : "Rooks",</v>
       </c>
-      <c r="D382" s="89"/>
+      <c r="D382" s="82"/>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B383" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C383" t="str">
         <f t="shared" si="7"/>
         <v>"RH" : "Rush",</v>
       </c>
-      <c r="D383" s="89"/>
+      <c r="D383" s="82"/>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B384" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C384" t="str">
         <f t="shared" si="7"/>
         <v>"RS" : "Russell",</v>
       </c>
-      <c r="D384" s="89"/>
+      <c r="D384" s="82"/>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B385" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C385" t="str">
         <f t="shared" si="7"/>
         <v>"SA" : "Saline",</v>
       </c>
-      <c r="D385" s="89"/>
+      <c r="D385" s="82"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B386" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C386" t="str">
         <f t="shared" si="7"/>
         <v>"SC" : "Scott",</v>
       </c>
-      <c r="D386" s="89"/>
+      <c r="D386" s="82"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B387" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C387" t="str">
         <f t="shared" si="7"/>
         <v>"SG" : "Sedgwick",</v>
       </c>
-      <c r="D387" s="89"/>
+      <c r="D387" s="82"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B388" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C388" t="str">
         <f t="shared" si="7"/>
         <v>"SW" : "Seward",</v>
       </c>
-      <c r="D388" s="89"/>
+      <c r="D388" s="82"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B389" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C389" t="str">
         <f t="shared" si="7"/>
         <v>"SN" : "Shawnee",</v>
       </c>
-      <c r="D389" s="89"/>
+      <c r="D389" s="82"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B390" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C390" t="str">
         <f t="shared" si="7"/>
         <v>"SD" : "Sheridan",</v>
       </c>
-      <c r="D390" s="89"/>
+      <c r="D390" s="82"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B391" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C391" t="str">
         <f t="shared" si="7"/>
         <v>"SH" : "Sherman",</v>
       </c>
-      <c r="D391" s="89"/>
+      <c r="D391" s="82"/>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B392" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C392" t="str">
         <f t="shared" si="7"/>
         <v>"SM" : "Smith",</v>
       </c>
-      <c r="D392" s="89"/>
+      <c r="D392" s="82"/>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B393" t="s">
         <v>276</v>
@@ -11806,316 +11782,316 @@
         <f t="shared" si="7"/>
         <v>"SF" : "Stafford",</v>
       </c>
-      <c r="D393" s="89"/>
+      <c r="D393" s="82"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B394" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C394" t="str">
         <f t="shared" si="7"/>
         <v>"ST" : "Stanton",</v>
       </c>
-      <c r="D394" s="89"/>
+      <c r="D394" s="82"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B395" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C395" t="str">
         <f t="shared" si="7"/>
         <v>"SV" : "Stevens",</v>
       </c>
-      <c r="D395" s="89"/>
+      <c r="D395" s="82"/>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B396" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C396" t="str">
         <f t="shared" si="7"/>
         <v>"SU" : "Sumner",</v>
       </c>
-      <c r="D396" s="89"/>
+      <c r="D396" s="82"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B397" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C397" t="str">
         <f t="shared" si="7"/>
         <v>"TH" : "Thomas",</v>
       </c>
-      <c r="D397" s="89"/>
+      <c r="D397" s="82"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B398" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C398" t="str">
         <f t="shared" si="7"/>
         <v>"TR" : "Trego",</v>
       </c>
-      <c r="D398" s="89"/>
+      <c r="D398" s="82"/>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B399" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C399" t="str">
         <f t="shared" si="7"/>
         <v>"WB" : "Wabaunsee",</v>
       </c>
-      <c r="D399" s="89"/>
+      <c r="D399" s="82"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B400" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C400" t="str">
         <f t="shared" si="7"/>
         <v>"WA" : "Wallace",</v>
       </c>
-      <c r="D400" s="89"/>
+      <c r="D400" s="82"/>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B401" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C401" t="str">
         <f t="shared" si="7"/>
         <v>"WS" : "Washington",</v>
       </c>
-      <c r="D401" s="89"/>
+      <c r="D401" s="82"/>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B402" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C402" t="str">
         <f t="shared" si="7"/>
         <v>"WH" : "Wichita",</v>
       </c>
-      <c r="D402" s="89"/>
+      <c r="D402" s="82"/>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B403" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C403" t="str">
         <f t="shared" si="7"/>
         <v>"WL" : "Wilson",</v>
       </c>
-      <c r="D403" s="89"/>
+      <c r="D403" s="82"/>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B404" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C404" t="str">
         <f t="shared" si="7"/>
         <v>"WO" : "Woodson",</v>
       </c>
-      <c r="D404" s="89"/>
+      <c r="D404" s="82"/>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B405" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C405" t="str">
         <f t="shared" si="7"/>
         <v>"WY" : "Wyandotte",</v>
       </c>
-      <c r="D405" s="89"/>
+      <c r="D405" s="82"/>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C407" s="89"/>
+      <c r="C407" s="82"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C409" s="89"/>
+      <c r="C409" s="82"/>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C411" s="89"/>
+      <c r="C411" s="82"/>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C413" s="89"/>
+      <c r="C413" s="82"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C415" s="89"/>
+      <c r="C415" s="82"/>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C417" s="89"/>
+      <c r="C417" s="82"/>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C419" s="89"/>
+      <c r="C419" s="82"/>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C421" s="89"/>
+      <c r="C421" s="82"/>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C423" s="89"/>
+      <c r="C423" s="82"/>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C425" s="89"/>
+      <c r="C425" s="82"/>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C427" s="89"/>
+      <c r="C427" s="82"/>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C429" s="89"/>
+      <c r="C429" s="82"/>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C431" s="89"/>
+      <c r="C431" s="82"/>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C433" s="89"/>
+      <c r="C433" s="82"/>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C435" s="89"/>
+      <c r="C435" s="82"/>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C437" s="89"/>
+      <c r="C437" s="82"/>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C439" s="89"/>
+      <c r="C439" s="82"/>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C441" s="89"/>
+      <c r="C441" s="82"/>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C443" s="89"/>
+      <c r="C443" s="82"/>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C445" s="89"/>
+      <c r="C445" s="82"/>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C447" s="89"/>
+      <c r="C447" s="82"/>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C449" s="89"/>
+      <c r="C449" s="82"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C451" s="89"/>
+      <c r="C451" s="82"/>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C453" s="89"/>
+      <c r="C453" s="82"/>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C455" s="89"/>
+      <c r="C455" s="82"/>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C457" s="89"/>
+      <c r="C457" s="82"/>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C459" s="89"/>
+      <c r="C459" s="82"/>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C461" s="89"/>
+      <c r="C461" s="82"/>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C463" s="89"/>
+      <c r="C463" s="82"/>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C465" s="89"/>
+      <c r="C465" s="82"/>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C467" s="89"/>
+      <c r="C467" s="82"/>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C469" s="89"/>
+      <c r="C469" s="82"/>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C471" s="89"/>
+      <c r="C471" s="82"/>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C473" s="89"/>
+      <c r="C473" s="82"/>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C475" s="89"/>
+      <c r="C475" s="82"/>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C477" s="89"/>
+      <c r="C477" s="82"/>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C479" s="89"/>
+      <c r="C479" s="82"/>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C481" s="89"/>
+      <c r="C481" s="82"/>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C483" s="89"/>
+      <c r="C483" s="82"/>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C485" s="89"/>
+      <c r="C485" s="82"/>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C487" s="89"/>
+      <c r="C487" s="82"/>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C489" s="89"/>
+      <c r="C489" s="82"/>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C491" s="89"/>
+      <c r="C491" s="82"/>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C493" s="89"/>
+      <c r="C493" s="82"/>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C495" s="89"/>
+      <c r="C495" s="82"/>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C497" s="89"/>
+      <c r="C497" s="82"/>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C499" s="89"/>
+      <c r="C499" s="82"/>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C501" s="89"/>
+      <c r="C501" s="82"/>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C503" s="89"/>
+      <c r="C503" s="82"/>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C505" s="89"/>
+      <c r="C505" s="82"/>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C507" s="89"/>
+      <c r="C507" s="82"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A301:B539">
